--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,5184 +463,6480 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SAMN07333496</t>
+          <t>SAMEA5383985</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SRR5812043</t>
+          <t>ERR3201378</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRJNA393452</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37864317</t>
+          <t>69455540</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gli1</t>
+          <t>10678_0004</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SAMN25639114</t>
+          <t>SAMEA5383993</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SRR17876661</t>
+          <t>ERR3201386</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRJNA803232</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41918456</t>
+          <t>68131763</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>D6 GLI1 OE GLI1 IP rep1</t>
+          <t>10678_0012</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SAMN12601607</t>
+          <t>SAMEA5384006</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SRR10004130</t>
+          <t>ERR3201395</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRJNA560903</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33006209</t>
+          <t>47350298</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Gli1-Uninjured-2</t>
+          <t>10678_0025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SAMN20166249</t>
+          <t>SAMEA5384007</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SRR15097530</t>
+          <t>ERR3201396</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRJNA745450</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>46087816</t>
+          <t>47032789</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RNAseq.Gli1-rep1</t>
+          <t>10678_0026</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SAMN20166248</t>
+          <t>SAMEA5384009</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SRR15097531</t>
+          <t>ERR3201398</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRJNA745450</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44711538</t>
+          <t>70440843</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RNAseq.Gli1-rep2</t>
+          <t>10678_0028</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SAMN21032475</t>
+          <t>SAMEA5384013</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SRR15663757</t>
+          <t>ERR3201402</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRJNA758694</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35056570</t>
+          <t>93553176</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Enthesis Gli1 P14</t>
+          <t>10678_0032</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SAMN21032476</t>
+          <t>SAMEA5384014</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SRR15663758</t>
+          <t>ERR3201403</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRJNA758694</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>28889215</t>
+          <t>67883866</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Enthesis Gli1 P18</t>
+          <t>10678_0033</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SAMN21032479</t>
+          <t>SAMEA5384017</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SRR15663761</t>
+          <t>ERR3201406</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRJNA758694</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>37035704</t>
+          <t>63200552</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Enthesis Gli1 P42</t>
+          <t>10678_0036</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SAMN36814864</t>
+          <t>SAMEA5384020</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SRR25501391</t>
+          <t>ERR3201409</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PRJNA1001793</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16497848</t>
+          <t>70692388</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gli1+ MuSCs-3</t>
+          <t>10678_0039</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SAMN36814868</t>
+          <t>SAMEA5384023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SRR25501395</t>
+          <t>ERR3201412</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PRJNA1001793</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>18636427</t>
+          <t>58716856</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gli1- MuSCs-2</t>
+          <t>10678_0042</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SAMN06920541</t>
+          <t>SAMEA5384024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SRR5519008</t>
+          <t>ERR3201413</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PRJNA385913</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2476214</t>
+          <t>53941237</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gli1-R6-unbound</t>
+          <t>10678_0043</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SAMN12158434</t>
+          <t>SAMEA5384028</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SRR9610540</t>
+          <t>ERR3201417</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PRJNA551586</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>33866814</t>
+          <t>102756726</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>IR+Gli1 rep1</t>
+          <t>10678_0047</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SAMN12158433</t>
+          <t>SAMEA5383998</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SRR9610541</t>
+          <t>ERR3201420</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PRJNA551586</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>49550742</t>
+          <t>58726333</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>IR+Gli1 rep2</t>
+          <t>10678_0050</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SAMN12158432</t>
+          <t>SAMEA5384000</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SRR9610542</t>
+          <t>ERR3201422</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PRJNA551586</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23317048</t>
+          <t>44334011</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>IR+Gli1 rep3</t>
+          <t>10678_0052</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SAMEA5203411</t>
+          <t>SAMEA5383792</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ERR3028487</t>
+          <t>ERR3211442</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PRJEB30550</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>42995182</t>
+          <t>98321715</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GLI1 tumours -Series C</t>
+          <t>10674_0004</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SAMEA5203410</t>
+          <t>SAMEA5383795</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ERR3028488</t>
+          <t>ERR3211445</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PRJEB30550</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26391163</t>
+          <t>92583491</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GLI1 tumours -Series C</t>
+          <t>10674_0007</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SAMN12601603</t>
+          <t>SAMEA5383797</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SRR10004134</t>
+          <t>ERR3211447</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PRJNA560903</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>49470819</t>
+          <t>121410572</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gli1-5d BDL-2</t>
+          <t>10674_0009</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SAMN25639115</t>
+          <t>SAMEA5383800</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SRR17876662</t>
+          <t>ERR3211450</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PRJNA803232</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45404683</t>
+          <t>58851597</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>D6 GLI1 OE input rep2</t>
+          <t>10674_0012</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SAMN25639120</t>
+          <t>SAMEA5383801</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SRR17876668</t>
+          <t>ERR3211451</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PRJNA803232</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8128418</t>
+          <t>61689810</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>D6 control GLI1 IP rep1</t>
+          <t>10674_0013</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SAMN17003683</t>
+          <t>SAMEA5383803</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SRR13198964</t>
+          <t>ERR3211453</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6128311</t>
+          <t>85303970</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gli1-Het control diet-1</t>
+          <t>10674_0015</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SAMN17003681</t>
+          <t>SAMEA5383805</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SRR13198970</t>
+          <t>ERR3211455</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12536072</t>
+          <t>122262622</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Gli1-Het control diet-3</t>
+          <t>10674_0017</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SAMN17003680</t>
+          <t>SAMEA5383813</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SRR13198973</t>
+          <t>ERR3211463</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6602086</t>
+          <t>69783425</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gli1-Het cuprizone diet-1</t>
+          <t>10674_0025</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SAMN17003680</t>
+          <t>SAMEA5383814</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SRR13198975</t>
+          <t>ERR3211464</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6627073</t>
+          <t>56394876</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gli1-Het cuprizone diet-1</t>
+          <t>10674_0026</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SAMN17003691</t>
+          <t>SAMEA5383817</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SRR13198977</t>
+          <t>ERR3211467</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12766255</t>
+          <t>41405880</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gli1-Het cuprizone diet-2</t>
+          <t>10674_0029</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SAMN17003691</t>
+          <t>SAMEA5383821</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SRR13198978</t>
+          <t>ERR3211471</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12783631</t>
+          <t>45281477</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Gli1-Het cuprizone diet-2</t>
+          <t>10674_0033</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SAMN17003689</t>
+          <t>SAMEA5383830</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SRR13198982</t>
+          <t>ERR3211480</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13257642</t>
+          <t>42144652</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Gli1-Null control diet-1</t>
+          <t>10674_0042</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SAMN17003688</t>
+          <t>SAMEA5383831</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SRR13198985</t>
+          <t>ERR3211481</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13730846</t>
+          <t>39409960</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Gli1-Null control diet-2</t>
+          <t>10674_0043</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SAMN17003688</t>
+          <t>SAMEA5383836</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SRR13198987</t>
+          <t>ERR3211486</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13750860</t>
+          <t>39766803</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Gli1-Null control diet-2</t>
+          <t>10674_0048</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SAMN17003687</t>
+          <t>SAMEA5383838</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SRR13198988</t>
+          <t>ERR3220179</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11809418</t>
+          <t>74551893</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Gli1-Null control diet-3</t>
+          <t>10675_0002</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SAMN17003686</t>
+          <t>SAMEA5383839</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SRR13198991</t>
+          <t>ERR3220180</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13356216</t>
+          <t>69964999</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gli1-Null cuprizone diet-1</t>
+          <t>10675_0003</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SAMN17003685</t>
+          <t>SAMEA5383842</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SRR13198994</t>
+          <t>ERR3220183</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11544955</t>
+          <t>66134313</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Gli1-Null cuprizone diet-2</t>
+          <t>10675_0006</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SAMN17003684</t>
+          <t>SAMEA5383843</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SRR13198999</t>
+          <t>ERR3220184</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13533663</t>
+          <t>64533492</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Gli1-Null cuprizone diet-3</t>
+          <t>10675_0007</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SAMN21855759</t>
+          <t>SAMEA5383845</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SRR16087760</t>
+          <t>ERR3220186</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PRJNA766647</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>16142961</t>
+          <t>77382493</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Paired gli1 RNAi males repeat1</t>
+          <t>10675_0009</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SAMN21855762</t>
+          <t>SAMEA5383847</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SRR16087765</t>
+          <t>ERR3220188</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PRJNA766647</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>16543630</t>
+          <t>85729101</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Unpaired gli1 RNAi males repeat1</t>
+          <t>10675_0011</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SAMN26513947</t>
+          <t>SAMEA5383854</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SRR20305911</t>
+          <t>ERR3220195</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PRJNA813686</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>44028784</t>
+          <t>81535663</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Gli1+ cells from mouse bones_2</t>
+          <t>10675_0018</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SAMEA5203396</t>
+          <t>SAMEA5383855</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ERR3028476</t>
+          <t>ERR3220196</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PRJEB30549</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>53886303</t>
+          <t>89546978</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>GLI1 induced tumours - Series A-D</t>
+          <t>10675_0019</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SAMEA5203399</t>
+          <t>SAMEA5383859</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ERR3028479</t>
+          <t>ERR3220200</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PRJEB30549</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>57875227</t>
+          <t>73181846</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>GLI1 induced tumours - Series A-D</t>
+          <t>10675_0023</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SAMN13111076</t>
+          <t>SAMEA5383860</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SRR10343292</t>
+          <t>ERR3220201</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PRJNA579397</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>56908918</t>
+          <t>76355446</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sulf2-TTR Gli1 KO replicate 1</t>
+          <t>10675_0024</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SAMN25639112</t>
+          <t>SAMEA5383861</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SRR17876657</t>
+          <t>ERR3220202</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PRJNA803232</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>22932098</t>
+          <t>78498400</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>D6 GLI1 OE H3K27ac ChIP rep1</t>
+          <t>10675_0025</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SAMN25639210</t>
+          <t>SAMEA5383866</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SRR17876993</t>
+          <t>ERR3220207</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PRJNA803244</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8183606</t>
+          <t>62441226</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>RNA-Seq D12 GLI1 OE rep2</t>
+          <t>10675_0030</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SAMN25639211</t>
+          <t>SAMEA5383867</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SRR17876995</t>
+          <t>ERR3220208</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PRJNA803244</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>9854513</t>
+          <t>60444819</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>RNA-Seq D12 GLI1 OE rep1</t>
+          <t>10675_0031</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SAMN25639214</t>
+          <t>SAMEA5383869</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SRR17877000</t>
+          <t>ERR3220210</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PRJNA803244</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>19760883</t>
+          <t>64997001</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>RNA-Seq D8 GLI1 OE rep2</t>
+          <t>10675_0033</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SAMN25639215</t>
+          <t>SAMEA5383871</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SRR17877003</t>
+          <t>ERR3220212</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PRJNA803244</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>9863489</t>
+          <t>57160651</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>RNA-Seq D8 GLI1 OE rep1</t>
+          <t>10675_0035</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SAMN40253130</t>
+          <t>SAMEA5383878</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SRR28217265</t>
+          <t>ERR3220218</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PRJNA1083504</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>481473342</t>
+          <t>59076219</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>GLI1+ cells from hypoxic mouse lungs</t>
+          <t>10675_0042</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SAMN16961392</t>
+          <t>SAMEA5383880</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SRR13168821</t>
+          <t>ERR3220220</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>40330508</t>
+          <t>60427548</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-TdT_Cortex_TdT negtive_replicate 1</t>
+          <t>10675_0044</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SAMEA103581418</t>
+          <t>SAMEA5383885</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ERR1865250</t>
+          <t>ERR3224567</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PRJEB19811</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13761416</t>
+          <t>95857544</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Gli1+ cells in bone marrow fibrosis (ThPO)</t>
+          <t>10676_0001</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SAMN25639230</t>
+          <t>SAMEA5383888</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SRR17877025</t>
+          <t>ERR3224570</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PRJNA803243</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>22472524</t>
+          <t>97362728</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>RNA-Seq neural D10 GLI1 OE rep2</t>
+          <t>10676_0004</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SAMN25639235</t>
+          <t>SAMEA5383890</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SRR17877033</t>
+          <t>ERR3224572</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PRJNA803243</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>30356107</t>
+          <t>112943945</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>RNA-Seq neural D5 GLI1 OE rep4</t>
+          <t>10676_0006</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SAMN16961385</t>
+          <t>SAMEA5383894</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SRR13168812</t>
+          <t>ERR3224574</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>24293650</t>
+          <t>115010434</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-TdT_Spinal Cord_TdT positive_replicate 1</t>
+          <t>10676_0010</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SAMN16961383</t>
+          <t>SAMEA5383895</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SRR13168814</t>
+          <t>ERR3224575</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>56379143</t>
+          <t>107056057</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-eYFP_Spinal Cord_eYFP positive_replicate 3</t>
+          <t>10676_0011</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SAMN16961381</t>
+          <t>SAMEA5383900</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SRR13168816</t>
+          <t>ERR3224580</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>46514875</t>
+          <t>128668578</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-eYFP_Spinal Cord_eYFP positive_replicate 2</t>
+          <t>10676_0016</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SAMN16961389</t>
+          <t>SAMEA5383904</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SRR13168824</t>
+          <t>ERR3224584</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>25072050</t>
+          <t>120323418</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-TdT_Spinal Cord_TdT positive_replicate 3</t>
+          <t>10676_0020</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SAMN16961380</t>
+          <t>SAMEA5383905</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SRR13168825</t>
+          <t>ERR3224585</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>28577606</t>
+          <t>137728945</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-eYFP_Spinal Cord_eYFP negtive_replicate 1</t>
+          <t>10676_0021</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SAMN16961379</t>
+          <t>SAMEA5383906</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SRR13168826</t>
+          <t>ERR3224586</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>18083646</t>
+          <t>105920994</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-eYFP_Spinal Cord_eYFP positive_replicate 1</t>
+          <t>10676_0022</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SAMN21855754</t>
+          <t>SAMEA5383907</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SRR16087757</t>
+          <t>ERR3224587</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PRJNA766647</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16775753</t>
+          <t>103674030</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Females separated with gli1 RNAi males repeat1</t>
+          <t>10676_0023</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SAMEA5095625</t>
+          <t>SAMEA5383908</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ERR2907230</t>
+          <t>ERR3224588</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PRJEB29730</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>105492</t>
+          <t>128046010</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Gli1/2/3 HT-SELEX Cycle 3 dataset</t>
+          <t>10676_0024</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SAMEA5095627</t>
+          <t>SAMEA5383909</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ERR2907232</t>
+          <t>ERR3224589</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PRJEB29730</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>63142</t>
+          <t>113387279</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Gli1/2/3 HT-SELEX Cycle 5 dataset</t>
+          <t>10676_0025</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SAMEA5095629</t>
+          <t>SAMEA5383911</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ERR2907234</t>
+          <t>ERR3224591</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PRJEB29730</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1019892</t>
+          <t>108692792</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Gli1/2/3 HT-SELEX Cycle 7 dataset</t>
+          <t>10676_0027</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SAMN21855748</t>
+          <t>SAMEA5383913</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SRR16087754</t>
+          <t>ERR3224593</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PRJNA766647</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>19164197</t>
+          <t>101625927</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Females paired up with gli1 RNAi males repeat1</t>
+          <t>10676_0029</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SAMN21855751</t>
+          <t>SAMEA5383915</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SRR16087755</t>
+          <t>ERR3224595</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PRJNA766647</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>16204161</t>
+          <t>101040697</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Females paired up with gli1 RNAi males repeat2</t>
+          <t>10676_0031</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SAMD00090930</t>
+          <t>SAMEA5383925</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DRR108694</t>
+          <t>ERR3224604</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PRJDB5361</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>19063466</t>
+          <t>97208864</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>GLI1 inducible SEES3 human ES cells with tet-on system, cell line no. 1, Dox-, duration 48 hours</t>
+          <t>10676_0040</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SAMD00090931</t>
+          <t>SAMEA5383926</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DRR108695</t>
+          <t>ERR3224605</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PRJDB5361</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>17687142</t>
+          <t>111629609</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>GLI1 inducible SEES3 human ES cells with tet-on system, cell line no. 1, Dox+, duration 48 hours</t>
+          <t>10676_0041</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SAMD00090932</t>
+          <t>SAMEA5383927</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DRR108696</t>
+          <t>ERR3224606</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PRJDB5361</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>22375854</t>
+          <t>100816571</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>GLI1 inducible SEES3 human ES cells with tet-on system, cell line no. 2, Dox-, duration 24 hours</t>
+          <t>10676_0042</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SAMD00090934</t>
+          <t>SAMEA5383928</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DRR108698</t>
+          <t>ERR3224607</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PRJDB5361</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>18512755</t>
+          <t>107829006</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>GLI1 inducible SEES3 human ES cells with tet-on system, cell line no. 2, Dox-, duration 48 hours</t>
+          <t>10676_0043</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SAMN25639113</t>
+          <t>SAMEA5383932</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SRR17876658</t>
+          <t>ERR3224610</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PRJNA803232</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>18736841</t>
+          <t>123968719</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>D6 GLI1 OE GLI1 IP rep2</t>
+          <t>10676_0047</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SAMN21032473</t>
+          <t>SAMEA5383933</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SRR15663755</t>
+          <t>ERR3224611</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PRJNA758694</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>27121189</t>
+          <t>129942570</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Enthesis Gli1 P7</t>
+          <t>10676_0048</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SAMN36814863</t>
+          <t>SAMEA5383892</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SRR25501390</t>
+          <t>ERR3224613</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PRJNA1001793</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>32662916</t>
+          <t>97430908</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Gli1+ MuSCs-4</t>
+          <t>10676_0050</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SAMN36814867</t>
+          <t>SAMEA5383944</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SRR25501394</t>
+          <t>ERR3275101</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PRJNA1001793</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>21490623</t>
+          <t>133345516</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Gli1- MuSCs-3</t>
+          <t>10677_0011</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SAMN36814869</t>
+          <t>SAMEA5383950</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SRR25501396</t>
+          <t>ERR3275106</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PRJNA1001793</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>26193323</t>
+          <t>159451022</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Gli1- MuSCs-1</t>
+          <t>10677_0017</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SAMEA5203406</t>
+          <t>SAMEA5383956</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ERR3028486</t>
+          <t>ERR3275111</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PRJEB30550</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>44601825</t>
+          <t>140531343</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>GLI1 tumours -Series C</t>
+          <t>10677_0023</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SAMEA5203407</t>
+          <t>SAMEA5383963</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ERR3028491</t>
+          <t>ERR3275116</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PRJEB30550</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>32657672</t>
+          <t>120648014</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>GLI1 tumours -Series C</t>
+          <t>10677_0030</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SAMN12601604</t>
+          <t>SAMEA5383968</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SRR10004133</t>
+          <t>ERR3275119</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PRJNA560903</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>25101396</t>
+          <t>128456056</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Gli1-5d BDL-1</t>
+          <t>10677_0035</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SAMN06920544</t>
+          <t>SAMEA5383973</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SRR5519005</t>
+          <t>ERR3275121</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PRJNA385913</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>12841037</t>
+          <t>126311197</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Gli1-R1-R5-bound</t>
+          <t>10677_0040</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SAMN06920543</t>
+          <t>SAMEA5383974</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SRR5519006</t>
+          <t>ERR3275122</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PRJNA385913</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>12259717</t>
+          <t>132483373</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Gli1-R1-R5-unbound</t>
+          <t>10677_0041</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SAMN06920553</t>
+          <t>SAMEA5383976</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SRR5519010</t>
+          <t>ERR3275124</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PRJNA385913</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>883357</t>
+          <t>119053135</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Gli1-R4-R6-unbound</t>
+          <t>10677_0043</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SAMN17003683</t>
+          <t>SAMEA5383977</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SRR13198965</t>
+          <t>ERR3275125</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>6132901</t>
+          <t>128523824</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Gli1-Het control diet-1</t>
+          <t>10677_0044</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SAMN17003683</t>
+          <t>SAMEA5383978</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SRR13198966</t>
+          <t>ERR3275126</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>6173786</t>
+          <t>136527050</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Gli1-Het control diet-1</t>
+          <t>10677_0045</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SAMN17003682</t>
+          <t>SAMEA5383980</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SRR13198969</t>
+          <t>ERR3275128</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>10799181</t>
+          <t>134074212</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Gli1-Het control diet-2</t>
+          <t>10677_0047</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SAMN17003691</t>
+          <t>SAMEA5383981</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SRR13198976</t>
+          <t>ERR3275129</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>12734537</t>
+          <t>125337628</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Gli1-Het cuprizone diet-2</t>
+          <t>10677_0048</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SAMN17003689</t>
+          <t>SAMEA5383946</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SRR13198984</t>
+          <t>ERR3275130</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>13308705</t>
+          <t>128811180</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Gli1-Null control diet-1</t>
+          <t>10677_0049</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SAMN17003687</t>
+          <t>SAMEA5383965</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SRR13198989</t>
+          <t>ERR3275135</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>11857599</t>
+          <t>142578424</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Gli1-Null control diet-3</t>
+          <t>10677_0054</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SAMN17003686</t>
+          <t>SAMEA5383972</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SRR13198992</t>
+          <t>ERR3275138</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>13380512</t>
+          <t>136213219</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Gli1-Null cuprizone diet-1</t>
+          <t>10677_0057</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SAMN17003686</t>
+          <t>SAMEA5383983</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SRR13198993</t>
+          <t>ERR3201376</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>13449147</t>
+          <t>56237450</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Gli1-Null cuprizone diet-1</t>
+          <t>10678_0002</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SAMN17003685</t>
+          <t>SAMEA5383984</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SRR13198995</t>
+          <t>ERR3201377</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11608009</t>
+          <t>51129912</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Gli1-Null cuprizone diet-2</t>
+          <t>10678_0003</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SAMN17003685</t>
+          <t>SAMEA5383986</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SRR13198996</t>
+          <t>ERR3201379</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>11657438</t>
+          <t>68358031</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Gli1-Null cuprizone diet-2</t>
+          <t>10678_0005</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SAMN17003684</t>
+          <t>SAMEA5383990</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SRR13198998</t>
+          <t>ERR3201383</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>13515213</t>
+          <t>47531400</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Gli1-Null cuprizone diet-3</t>
+          <t>10678_0009</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SAMN21855760</t>
+          <t>SAMEA5384002</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SRR16087761</t>
+          <t>ERR3201391</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PRJNA766647</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>16692961</t>
+          <t>55274916</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Paired gli1 RNAi males repeat2</t>
+          <t>10678_0021</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SAMN21855761</t>
+          <t>SAMEA5384003</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SRR16087763</t>
+          <t>ERR3201392</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PRJNA766647</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>16199033</t>
+          <t>54456304</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Paired gli1 RNAi males repeat3</t>
+          <t>10678_0022</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SAMN21855764</t>
+          <t>SAMEA5384004</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SRR16087769</t>
+          <t>ERR3201393</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>PRJNA766647</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>16379785</t>
+          <t>69995703</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Unpaired gli1 RNAi males repeat3</t>
+          <t>10678_0023</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SAMN25639120</t>
+          <t>SAMEA5384005</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SRR17876669</t>
+          <t>ERR3201394</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>PRJNA803232</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>39482363</t>
+          <t>70725060</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>D6 control GLI1 IP rep1</t>
+          <t>10678_0024</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SAMN26513948</t>
+          <t>SAMEA5384008</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SRR20305924</t>
+          <t>ERR3201397</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PRJNA813686</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>44648540</t>
+          <t>50555675</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Gli1+ cells from mouse bones_3</t>
+          <t>10678_0027</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SAMEA5203394</t>
+          <t>SAMEA5384010</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ERR3028474</t>
+          <t>ERR3201399</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PRJEB30549</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>55050139</t>
+          <t>62195694</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>GLI1 induced tumours - Series A-D</t>
+          <t>10678_0029</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SAMEA5203395</t>
+          <t>SAMEA5384011</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ERR3028475</t>
+          <t>ERR3201400</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>PRJEB30549</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>54528425</t>
+          <t>92727327</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>GLI1 induced tumours - Series A-D</t>
+          <t>10678_0030</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SAMEA5203397</t>
+          <t>SAMEA5384012</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ERR3028477</t>
+          <t>ERR3201401</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PRJEB30549</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>103740312</t>
+          <t>79016767</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>GLI1 induced tumours - Series A-D</t>
+          <t>10678_0031</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SAMEA5203400</t>
+          <t>SAMEA5384015</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ERR3028480</t>
+          <t>ERR3201404</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>PRJEB30549</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>55878263</t>
+          <t>55829354</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>GLI1 induced tumours - Series A-D</t>
+          <t>10678_0034</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SAMEA5203401</t>
+          <t>SAMEA5384021</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ERR3028481</t>
+          <t>ERR3201410</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>PRJEB30549</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>64445739</t>
+          <t>77208255</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>GLI1 induced tumours - Series A-D</t>
+          <t>10678_0040</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SAMEA5203405</t>
+          <t>SAMEA5384027</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ERR3028485</t>
+          <t>ERR3201416</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PRJEB30549</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>53429316</t>
+          <t>84525742</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>GLI1 induced tumours - Series A-D</t>
+          <t>10678_0046</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SAMN13111079</t>
+          <t>SAMEA5384029</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SRR10343289</t>
+          <t>ERR3201418</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>PRJNA579397</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>55323405</t>
+          <t>97737394</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sulf2-TTR Gli1 WT replicate 1</t>
+          <t>10678_0048</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SAMN13111078</t>
+          <t>SAMEA5383995</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SRR10343290</t>
+          <t>ERR3201419</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>PRJNA579397</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>46893948</t>
+          <t>73526083</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sulf2-TTR Gli1 WT replicate 2</t>
+          <t>10678_0049</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SAMN13111075</t>
+          <t>SAMEA5383999</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SRR10343293</t>
+          <t>ERR3201421</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>PRJNA579397</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>79039666</t>
+          <t>47140975</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sulf2-TTR Gli1 KO replicate 2</t>
+          <t>10678_0051</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SAMN13111074</t>
+          <t>SAMEA5383790</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SRR10343294</t>
+          <t>ERR3211440</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>PRJNA579397</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>45767923</t>
+          <t>78145386</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sulf2-TTR Gli1 KO replicate 3</t>
+          <t>10674_0002</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SAMN16961394</t>
+          <t>SAMEA5383794</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SRR13168819</t>
+          <t>ERR3211444</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>44985874</t>
+          <t>84229087</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-TdT_Cortex_TdT negtive_replicate 2</t>
+          <t>10674_0006</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SAMN25639111</t>
+          <t>SAMEA5383796</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SRR17876656</t>
+          <t>ERR3211446</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>PRJNA803232</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>30298414</t>
+          <t>91779005</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>D6 GLI1 OE H3K27ac ChIP rep2</t>
+          <t>10674_0008</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SAMN25639210</t>
+          <t>SAMEA5383799</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SRR17876992</t>
+          <t>ERR3211449</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>PRJNA803244</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>24339885</t>
+          <t>86230917</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>RNA-Seq D12 GLI1 OE rep2</t>
+          <t>10674_0011</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SAMN25639211</t>
+          <t>SAMEA5383804</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SRR17876994</t>
+          <t>ERR3211454</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>PRJNA803244</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>17966672</t>
+          <t>61124550</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>RNA-Seq D12 GLI1 OE rep1</t>
+          <t>10674_0016</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SAMN25639218</t>
+          <t>SAMEA5383806</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SRR17877008</t>
+          <t>ERR3211456</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>PRJNA803244</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>20473556</t>
+          <t>112424031</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>RNA-Seq D6 GLI1 OE rep3</t>
+          <t>10674_0018</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SAMN25639219</t>
+          <t>SAMEA5383808</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SRR17877011</t>
+          <t>ERR3211458</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PRJNA803244</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>10215976</t>
+          <t>83612951</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>RNA-Seq D6 GLI1 OE rep2</t>
+          <t>10674_0020</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SAMN25639220</t>
+          <t>SAMEA5383809</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SRR17877012</t>
+          <t>ERR3211459</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>PRJNA803244</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>24106857</t>
+          <t>60675954</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>RNA-Seq D6 GLI1 OE rep1</t>
+          <t>10674_0021</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SAMN16961387</t>
+          <t>SAMEA5383810</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SRR13168810</t>
+          <t>ERR3211460</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>23166920</t>
+          <t>79841919</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-TdT_Spinal Cord_TdT positive_replicate 2</t>
+          <t>10674_0022</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SAMN16961382</t>
+          <t>SAMEA5383812</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SRR13168815</t>
+          <t>ERR3211462</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>53184360</t>
+          <t>94161962</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-eYFP_Spinal Cord_eYFP negtive_replicate 2</t>
+          <t>10674_0024</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SAMN16961390</t>
+          <t>SAMEA5383818</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SRR13168823</t>
+          <t>ERR3211468</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>24983396</t>
+          <t>36190697</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-TdT_Spinal Cord_TdT negtive_replicate 3</t>
+          <t>10674_0030</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SAMN21855758</t>
+          <t>SAMEA5383819</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SRR16087759</t>
+          <t>ERR3211469</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>PRJNA766647</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>16748200</t>
+          <t>27443767</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Females separated with gli1 RNAi males repeat3</t>
+          <t>10674_0031</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SAMN25639231</t>
+          <t>SAMEA5383820</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SRR17877026</t>
+          <t>ERR3211470</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>PRJNA803243</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>35190832</t>
+          <t>39800477</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>RNA-Seq neural D10 GLI1 OE rep1</t>
+          <t>10674_0032</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SAMEA103584418</t>
+          <t>SAMEA5383822</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ERR1865254</t>
+          <t>ERR3211472</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>PRJEB19811</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>13262041</t>
+          <t>35781051</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Gli1+ cells in control bone marrow (empty vector)</t>
+          <t>10674_0034</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SAMEA5095623</t>
+          <t>SAMEA5383823</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ERR2907228</t>
+          <t>ERR3211473</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>PRJEB29730</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>56851</t>
+          <t>38620381</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Gli1/2/3 HT-SELEX Cycle 1 dataset</t>
+          <t>10674_0035</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SAMEA5095624</t>
+          <t>SAMEA5383824</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ERR2907229</t>
+          <t>ERR3211474</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>PRJEB29730</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>121354</t>
+          <t>41317540</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Gli1/2/3 HT-SELEX Cycle 2 dataset</t>
+          <t>10674_0036</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SAMN13222368</t>
+          <t>SAMEA5383825</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SRR10408697</t>
+          <t>ERR3211475</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>PRJNA588064</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>328562620</t>
+          <t>27095946</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>adult murine lung GLI1+ stromal cells treated with bleomycin</t>
+          <t>10674_0037</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SAMD00090929</t>
+          <t>SAMEA5383827</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DRR108693</t>
+          <t>ERR3211477</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>PRJDB5361</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>18504979</t>
+          <t>37784737</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>GLI1 inducible SEES3 human ES cells with tet-on system, cell line no. 1, Dox+, duration 24 hours</t>
+          <t>10674_0039</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SAMD00090933</t>
+          <t>SAMEA5383828</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DRR108697</t>
+          <t>ERR3211478</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>PRJDB5361</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>17730677</t>
+          <t>33279840</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>GLI1 inducible SEES3 human ES cells with tet-on system, cell line no. 2, Dox+, duration 24 hours</t>
+          <t>10674_0040</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SAMD00090935</t>
+          <t>SAMEA5383832</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DRR108699</t>
+          <t>ERR3211482</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>PRJDB5361</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>17571453</t>
+          <t>31115409</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>GLI1 inducible SEES3 human ES cells with tet-on system, cell line no. 2, Dox+, duration 48 hours</t>
+          <t>10674_0044</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SAMN25639113</t>
+          <t>SAMEA5383835</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SRR17876659</t>
+          <t>ERR3211485</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>PRJNA803232</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>35572943</t>
+          <t>37868636</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>D6 GLI1 OE GLI1 IP rep2</t>
+          <t>10674_0047</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SAMN25639114</t>
+          <t>SAMEA5383841</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SRR17876660</t>
+          <t>ERR3220182</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>PRJNA803232</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>14579866</t>
+          <t>72280439</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>D6 GLI1 OE GLI1 IP rep1</t>
+          <t>10675_0005</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SAMN12601608</t>
+          <t>SAMEA5383846</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SRR10004129</t>
+          <t>ERR3220187</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>PRJNA560903</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>24833889</t>
+          <t>82079657</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Gli1-Uninjured-1</t>
+          <t>10675_0010</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SAMN20166247</t>
+          <t>SAMEA5383848</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SRR15097532</t>
+          <t>ERR3220189</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>PRJNA745450</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>46610684</t>
+          <t>100685704</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>RNAseq.Gli1-rep3</t>
+          <t>10675_0012</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SAMN21032474</t>
+          <t>SAMEA5383850</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SRR15663756</t>
+          <t>ERR3220191</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>PRJNA758694</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>21157099</t>
+          <t>91320818</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Enthesis Gli1 P11</t>
+          <t>10675_0014</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SAMN21032477</t>
+          <t>SAMEA5383853</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SRR15663759</t>
+          <t>ERR3220194</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>PRJNA758694</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>19909686</t>
+          <t>80851565</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Enthesis Gli1 P21</t>
+          <t>10675_0017</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SAMN21032478</t>
+          <t>SAMEA5383862</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SRR15663760</t>
+          <t>ERR3220203</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>PRJNA758694</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>44431304</t>
+          <t>61421647</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Enthesis Gli1 P28</t>
+          <t>10675_0026</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SAMN36814865</t>
+          <t>SAMEA5383865</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SRR25501392</t>
+          <t>ERR3220206</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>PRJNA1001793</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>26066163</t>
+          <t>66275049</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Gli1+ MuSCs-2</t>
+          <t>10675_0029</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SAMN36814866</t>
+          <t>SAMEA5383868</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SRR25501393</t>
+          <t>ERR3220209</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>PRJNA1001793</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>26124165</t>
+          <t>64889856</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Gli1+ MuSCs-1</t>
+          <t>10675_0032</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SAMN06920542</t>
+          <t>SAMEA5383875</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SRR5519007</t>
+          <t>ERR3220216</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>PRJNA385913</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2013467</t>
+          <t>62754469</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Gli1-R6-bound</t>
+          <t>10675_0039</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SAMEA5203409</t>
+          <t>SAMEA5383877</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ERR3028489</t>
+          <t>ERR3220217</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>PRJEB30550</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>47012115</t>
+          <t>67033955</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>GLI1 tumours -Series C</t>
+          <t>10675_0041</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SAMEA5203408</t>
+          <t>SAMEA5383882</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ERR3028490</t>
+          <t>ERR3220222</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>PRJEB30550</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>44327844</t>
+          <t>65453253</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>GLI1 tumours -Series C</t>
+          <t>10675_0046</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SAMN25639100</t>
+          <t>SAMEA5383883</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SRR17876642</t>
+          <t>ERR3220223</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>PRJNA803233</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>26597865</t>
+          <t>62356450</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>D7 GLI1 OE rep3</t>
+          <t>10675_0047</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SAMN25639101</t>
+          <t>SAMEA5383884</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SRR17876643</t>
+          <t>ERR3220224</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>PRJNA803233</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>26476157</t>
+          <t>61747728</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>D7 GLI1 OE rep2</t>
+          <t>10675_0048</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SAMN25639102</t>
+          <t>SAMEA5383876</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SRR17876644</t>
+          <t>ERR3220225</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>PRJNA803233</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>33140331</t>
+          <t>61185675</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>D7 GLI1 OE rep1</t>
+          <t>10675_0049</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SAMN06920554</t>
+          <t>SAMEA5383887</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SRR5519009</t>
+          <t>ERR3224569</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>PRJNA385913</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>830353</t>
+          <t>111353211</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Gli1-R4-R6-bound</t>
+          <t>10676_0003</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SAMN17003682</t>
+          <t>SAMEA5383903</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SRR13198967</t>
+          <t>ERR3224583</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>10692113</t>
+          <t>114277109</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Gli1-Het control diet-2</t>
+          <t>10676_0019</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SAMN17003682</t>
+          <t>SAMEA5383912</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SRR13198968</t>
+          <t>ERR3224592</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>10758405</t>
+          <t>132210715</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Gli1-Het control diet-2</t>
+          <t>10676_0028</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SAMN17003681</t>
+          <t>SAMEA5383916</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SRR13198971</t>
+          <t>ERR3224596</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>12582028</t>
+          <t>122038749</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Gli1-Het control diet-3</t>
+          <t>10676_0032</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SAMN17003681</t>
+          <t>SAMEA5383922</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SRR13198972</t>
+          <t>ERR3224601</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>12589120</t>
+          <t>108747012</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Gli1-Het control diet-3</t>
+          <t>10676_0037</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SAMN17003680</t>
+          <t>SAMEA5383923</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SRR13198974</t>
+          <t>ERR3224602</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>6634447</t>
+          <t>124262486</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Gli1-Het cuprizone diet-1</t>
+          <t>10676_0038</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SAMN17003690</t>
+          <t>SAMEA5383931</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SRR13198979</t>
+          <t>ERR3224609</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>5944111</t>
+          <t>128860719</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Gli1-Het cuprizone diet-3</t>
+          <t>10676_0046</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SAMN17003690</t>
+          <t>SAMEA5383891</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SRR13198980</t>
+          <t>ERR3224612</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>5954158</t>
+          <t>90488725</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Gli1-Het cuprizone diet-3</t>
+          <t>10676_0049</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SAMN17003690</t>
+          <t>SAMEA5383929</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SRR13198981</t>
+          <t>ERR3224614</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>5989906</t>
+          <t>113605730</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Gli1-Het cuprizone diet-3</t>
+          <t>10676_0051</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SAMN17003689</t>
+          <t>SAMEA5383934</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SRR13198983</t>
+          <t>ERR3275091</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>13304312</t>
+          <t>128767155</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Gli1-Null control diet-1</t>
+          <t>10677_0001</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SAMN17003688</t>
+          <t>SAMEA5383936</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SRR13198986</t>
+          <t>ERR3275093</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>13750809</t>
+          <t>121117185</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Gli1-Null control diet-2</t>
+          <t>10677_0003</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SAMN17003687</t>
+          <t>SAMEA5383941</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SRR13198990</t>
+          <t>ERR3275098</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>11889251</t>
+          <t>133816015</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gli1-Null control diet-3</t>
+          <t>10677_0008</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SAMN17003684</t>
+          <t>SAMEA5383942</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SRR13198997</t>
+          <t>ERR3275099</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>PRJNA682609</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>13490564</t>
+          <t>134361681</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Gli1-Null cuprizone diet-3</t>
+          <t>10677_0009</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SAMN21855763</t>
+          <t>SAMEA5383943</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SRR16087767</t>
+          <t>ERR3275100</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>PRJNA766647</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>15535991</t>
+          <t>140498343</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Unpaired gli1 RNAi males repeat2</t>
+          <t>10677_0010</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SAMN25639116</t>
+          <t>SAMEA5383945</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SRR17876663</t>
+          <t>ERR3275102</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>PRJNA803232</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>52841703</t>
+          <t>137110708</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>D6 GLI1 OE input rep1</t>
+          <t>10677_0012</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SAMN25639119</t>
+          <t>SAMEA5383947</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SRR17876666</t>
+          <t>ERR3275103</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>PRJNA803232</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>3979072</t>
+          <t>141810702</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>D6 control GLI1 IP rep2</t>
+          <t>10677_0014</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SAMN25639119</t>
+          <t>SAMEA5383948</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SRR17876667</t>
+          <t>ERR3275104</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>PRJNA803232</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>43156405</t>
+          <t>152661013</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>D6 control GLI1 IP rep2</t>
+          <t>10677_0015</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SAMN26513926</t>
+          <t>SAMEA5383951</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SRR20305909</t>
+          <t>ERR3275107</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>PRJNA813686</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>45502026</t>
+          <t>139065577</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Gli1+ cells from mouse bones_1</t>
+          <t>10677_0018</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SAMEA5203398</t>
+          <t>SAMEA5383952</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ERR3028478</t>
+          <t>ERR3275108</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>PRJEB30549</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>57086716</t>
+          <t>144223344</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>GLI1 induced tumours - Series A-D</t>
+          <t>10677_0019</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SAMEA5203402</t>
+          <t>SAMEA5383954</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ERR3028482</t>
+          <t>ERR3275109</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>PRJEB30549</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>54901540</t>
+          <t>131868728</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>GLI1 induced tumours - Series A-D</t>
+          <t>10677_0021</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SAMEA5203403</t>
+          <t>SAMEA5383958</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ERR3028483</t>
+          <t>ERR3275112</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>PRJEB30549</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>53802654</t>
+          <t>136868181</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>GLI1 induced tumours - Series A-D</t>
+          <t>10677_0025</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SAMEA5203404</t>
+          <t>SAMEA5383961</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ERR3028484</t>
+          <t>ERR3275114</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>PRJEB30549</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>55253165</t>
+          <t>141067096</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>GLI1 induced tumours - Series A-D</t>
+          <t>10677_0028</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SAMN13111077</t>
+          <t>SAMEA5383962</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>SRR10343291</t>
+          <t>ERR3275115</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>PRJNA579397</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>57311426</t>
+          <t>120658116</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sulf2-TTR Gli1 WT replicate 3</t>
+          <t>10677_0029</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SAMN16961396</t>
+          <t>SAMEA5383966</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SRR13168817</t>
+          <t>ERR3275117</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>41551493</t>
+          <t>125046102</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-TdT_Cortex_TdT negtive_replicate 3</t>
+          <t>10677_0033</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SAMN16961395</t>
+          <t>SAMEA5383979</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SRR13168818</t>
+          <t>ERR3275127</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>45378538</t>
+          <t>133226909</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-TdT_Cortex_TdT positive_replicate 3</t>
+          <t>10677_0046</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SAMN16961393</t>
+          <t>SAMEA5383953</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SRR13168820</t>
+          <t>ERR3275131</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>38285460</t>
+          <t>127887541</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-TdT_Cortex_TdT positive_replicate 2</t>
+          <t>10677_0050</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SAMN16961391</t>
+          <t>SAMEA5383957</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SRR13168822</t>
+          <t>ERR3275132</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>38085046</t>
+          <t>127269231</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-TdT_Cortex_TdT positive_replicate 1</t>
+          <t>10677_0051</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SAMN25639214</t>
+          <t>SAMEA5383969</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SRR17877001</t>
+          <t>ERR3275136</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>PRJNA803244</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>9428946</t>
+          <t>139756973</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>RNA-Seq D8 GLI1 OE rep2</t>
+          <t>10677_0055</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SAMN25639215</t>
+          <t>SAMEA5383970</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SRR17877002</t>
+          <t>ERR3275137</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>PRJNA803244</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>19431488</t>
+          <t>138436977</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>RNA-Seq D8 GLI1 OE rep1</t>
+          <t>10677_0056</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SAMN25639218</t>
+          <t>SAMEA5383982</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SRR17877009</t>
+          <t>ERR3201375</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>PRJNA803244</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>9508492</t>
+          <t>48408772</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>RNA-Seq D6 GLI1 OE rep3</t>
+          <t>10678_0001</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SAMN25639219</t>
+          <t>SAMEA5383987</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SRR17877010</t>
+          <t>ERR3201380</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>PRJNA803244</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>18729010</t>
+          <t>78541868</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>RNA-Seq D6 GLI1 OE rep2</t>
+          <t>10678_0006</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SAMN25639220</t>
+          <t>SAMEA5383988</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SRR17877013</t>
+          <t>ERR3201381</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>PRJNA803244</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>8522351</t>
+          <t>63647835</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>RNA-Seq D6 GLI1 OE rep1</t>
+          <t>10678_0007</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SAMEA103579918</t>
+          <t>SAMEA5383989</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ERR1865248</t>
+          <t>ERR3201382</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>PRJEB19811</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>11050420</t>
+          <t>71326307</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Gli1+ cells in bone marrow fibrosis (ThPO)</t>
+          <t>10678_0008</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SAMEA103580668</t>
+          <t>SAMEA5383991</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ERR1865249</t>
+          <t>ERR3201384</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>PRJEB19811</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>11829318</t>
+          <t>53381418</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Gli1+ cells in bone marrow fibrosis (ThPO)</t>
+          <t>10678_0010</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SAMEA103582168</t>
+          <t>SAMEA5383992</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ERR1865251</t>
+          <t>ERR3201385</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>PRJEB19811</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>12584288</t>
+          <t>42546943</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Gli1+ cells in bone marrow fibrosis (ThPO)</t>
+          <t>10678_0011</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SAMEA103582918</t>
+          <t>SAMEA5383994</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ERR1865252</t>
+          <t>ERR3201387</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>PRJEB19811</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>12418089</t>
+          <t>50357041</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Gli1+ cells in bone marrow fibrosis (ThPO)</t>
+          <t>10678_0013</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SAMN16961388</t>
+          <t>SAMEA5383996</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SRR13168809</t>
+          <t>ERR3201388</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>23029636</t>
+          <t>39811521</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-TdT_Spinal Cord_TdT negtive_replicate 2</t>
+          <t>10678_0015</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SAMN16961386</t>
+          <t>SAMEA5383997</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SRR13168811</t>
+          <t>ERR3201389</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>24574994</t>
+          <t>68569023</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-TdT_Spinal Cord_TdT negtive_replicate 1</t>
+          <t>10678_0016</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SAMN16961384</t>
+          <t>SAMEA5384001</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SRR13168813</t>
+          <t>ERR3201390</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>PRJNA681591</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>52879445</t>
+          <t>68412279</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Gli1-CreERT2 Rosa26-eYFP_Spinal Cord_eYFP negtive_replicate 3</t>
+          <t>10678_0020</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SAMN21855756</t>
+          <t>SAMEA5384016</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SRR16087758</t>
+          <t>ERR3201405</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>PRJNA766647</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>17809530</t>
+          <t>81449754</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Females separated with gli1 RNAi males repeat2</t>
+          <t>10678_0035</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SAMN25639229</t>
+          <t>SAMEA5384018</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SRR17877024</t>
+          <t>ERR3201407</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>PRJNA803243</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>32169562</t>
+          <t>92464628</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>RNA-Seq neural D10 GLI1 OE rep3</t>
+          <t>10678_0037</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SAMN25639236</t>
+          <t>SAMEA5384019</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SRR17877030</t>
+          <t>ERR3201408</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>PRJNA803243</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>25329406</t>
+          <t>95243321</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>RNA-Seq neural D5 GLI1 OE rep3</t>
+          <t>10678_0038</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SAMN25639237</t>
+          <t>SAMEA5384022</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SRR17877031</t>
+          <t>ERR3201411</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>PRJNA803243</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>23814009</t>
+          <t>60936220</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>RNA-Seq neural D5 GLI1 OE rep2</t>
+          <t>10678_0041</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SAMN25639238</t>
+          <t>SAMEA5384025</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SRR17877032</t>
+          <t>ERR3201414</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>PRJNA803243</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>25622459</t>
+          <t>56313694</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>RNA-Seq neural D5 GLI1 OE rep1</t>
+          <t>10678_0044</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SAMN05437300</t>
+          <t>SAMEA5384026</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SRR3948366</t>
+          <t>ERR3201415</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>PRJNA331087</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>102195046</t>
+          <t>75825046</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Female GLI1-3xFLAG Day 0 ChIP rep2</t>
+          <t>10678_0045</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SAMN05437299</t>
+          <t>SAMEA5383789</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SRR3948367</t>
+          <t>ERR3211439</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>PRJNA331087</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>78254829</t>
+          <t>85361582</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Female GLI1-3xFLAG Day 0 Input rep2</t>
+          <t>10674_0001</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SAMN05437303</t>
+          <t>SAMEA5383791</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SRR3948382</t>
+          <t>ERR3211441</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>PRJNA331087</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>44847794</t>
+          <t>90368478</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Female GLI1-3xFLAG Day 0 ChIP rep1</t>
+          <t>10674_0003</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SAMN05437304</t>
+          <t>SAMEA5383793</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SRR3948383</t>
+          <t>ERR3211443</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>PRJNA331087</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>43006549</t>
+          <t>89084010</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Female GLI1-3xFLAG Day 0 Input rep1</t>
+          <t>10674_0005</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SAMEA103583668</t>
+          <t>SAMEA5383798</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ERR1865253</t>
+          <t>ERR3211448</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>PRJEB19811</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>9674732</t>
+          <t>50961087</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Gli1+ cells in control bone marrow (empty vector)</t>
+          <t>10674_0010</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SAMEA103585168</t>
+          <t>SAMEA5383802</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ERR1865255</t>
+          <t>ERR3211452</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>PRJEB19811</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>11774329</t>
+          <t>84186900</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Gli1+ cells in control bone marrow (empty vector)</t>
+          <t>10674_0014</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SAMEA103585918</t>
+          <t>SAMEA5383807</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ERR1865256</t>
+          <t>ERR3211457</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>PRJEB19811</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>13190783</t>
+          <t>52007080</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Gli1+ cells in control bone marrow (empty vector)</t>
+          <t>10674_0019</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SAMEA5095626</t>
+          <t>SAMEA5383811</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ERR2907231</t>
+          <t>ERR3211461</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>PRJEB29730</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>80151</t>
+          <t>105506853</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Gli1/2/3 HT-SELEX Cycle 4 dataset</t>
+          <t>10674_0023</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SAMEA5095628</t>
+          <t>SAMEA5383815</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ERR2907233</t>
+          <t>ERR3211465</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>PRJEB29730</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>857796</t>
+          <t>38012331</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Gli1/2/3 HT-SELEX Cycle 6 dataset</t>
+          <t>10674_0027</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SAMN21855753</t>
+          <t>SAMEA5383816</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SRR16087756</t>
+          <t>ERR3211466</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>PRJNA766647</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>20490656</t>
+          <t>26156779</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Females paired up with gli1 RNAi males repeat3</t>
+          <t>10674_0028</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SAMN13222369</t>
+          <t>SAMEA5383826</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SRR10408695</t>
+          <t>ERR3211476</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>PRJNA588064</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>295996069</t>
+          <t>40521810</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>adult murine lung GLI1+ stromal cells treated with PBS</t>
+          <t>10674_0038</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SAMN13222368</t>
+          <t>SAMEA5383829</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SRR10408698</t>
+          <t>ERR3211479</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>PRJNA588064</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>326017895</t>
+          <t>37388147</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>adult murine lung GLI1+ stromal cells treated with bleomycin</t>
+          <t>10674_0041</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SAMD00090928</t>
+          <t>SAMEA5383833</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DRR108692</t>
+          <t>ERR3211483</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>PRJDB5361</t>
+          <t>PRJEB31266</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>16763068</t>
+          <t>41861714</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>GLI1 inducible SEES3 human ES cells with tet-on system, cell line no. 1, Dox-, duration 24 hours</t>
+          <t>10674_0045</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>SAMEA5383834</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ERR3211484</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>47078020</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>10674_0046</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>SAMEA5383837</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ERR3220178</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>60526041</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>10675_0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>SAMEA5383840</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ERR3220181</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>67857198</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>10675_0004</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>SAMEA5383844</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ERR3220185</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>70390366</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>10675_0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>SAMEA5383849</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ERR3220190</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>81074645</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>10675_0013</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>SAMEA5383851</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ERR3220192</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>67460586</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>10675_0015</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>SAMEA5383852</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ERR3220193</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>68128512</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>10675_0016</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>SAMEA5383856</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ERR3220197</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>81661309</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>10675_0020</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>SAMEA5383857</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ERR3220198</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>72833513</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>10675_0021</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>SAMEA5383858</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ERR3220199</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>69275482</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>10675_0022</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>SAMEA5383863</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ERR3220204</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>58105689</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>10675_0027</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>SAMEA5383864</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ERR3220205</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>65354306</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>10675_0028</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>SAMEA5383870</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ERR3220211</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>59061793</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>10675_0034</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>SAMEA5383872</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ERR3220213</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>60201192</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>10675_0036</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>SAMEA5383873</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ERR3220214</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>66520701</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>10675_0037</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>SAMEA5383874</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ERR3220215</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>67285831</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>10675_0038</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>SAMEA5383879</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ERR3220219</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>61643086</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>10675_0043</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>SAMEA5383881</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ERR3220221</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>61494289</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>10675_0045</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>SAMEA5383886</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ERR3224568</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>110700266</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>10676_0002</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>SAMEA5383889</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ERR3224571</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>89166754</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>10676_0005</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>SAMEA5383893</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ERR3224573</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>109713843</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>10676_0009</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>SAMEA5383896</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ERR3224576</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>132287068</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>10676_0012</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>SAMEA5383897</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ERR3224577</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>104772751</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>10676_0013</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>SAMEA5383898</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ERR3224578</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>105859889</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>10676_0014</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>SAMEA5383899</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ERR3224579</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>119367037</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>10676_0015</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>SAMEA5383901</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ERR3224581</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>116173964</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>10676_0017</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>SAMEA5383902</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ERR3224582</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>111675068</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>10676_0018</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>SAMEA5383910</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ERR3224590</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>109486347</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>10676_0026</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>SAMEA5383914</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ERR3224594</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>122728732</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>10676_0030</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>SAMEA5383917</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>ERR3224597</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>134601253</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>10676_0033</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>SAMEA5383919</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>ERR3224598</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>128396879</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>10676_0034</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>SAMEA5383920</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ERR3224599</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>125052574</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>10676_0035</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>SAMEA5383921</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>ERR3224600</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>119385819</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>10676_0036</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>SAMEA5383924</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ERR3224603</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>102298834</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>10676_0039</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>SAMEA5383930</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ERR3224608</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>114265510</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>10676_0045</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>SAMEA5383935</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>ERR3275092</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>124570715</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>10677_0002</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>SAMEA5383937</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>ERR3275094</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>136364943</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>10677_0004</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>SAMEA5383938</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>ERR3275095</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>133040571</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>10677_0005</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>SAMEA5383939</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ERR3275096</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>130973399</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>10677_0006</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>SAMEA5383940</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ERR3275097</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>116730496</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>10677_0007</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>SAMEA5383949</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ERR3275105</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>142248686</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>10677_0016</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>SAMEA5383955</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>ERR3275110</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>144763036</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>10677_0022</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>SAMEA5383960</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>ERR3275113</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>132000998</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>10677_0027</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>SAMEA5383967</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>ERR3275118</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>130920072</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>10677_0034</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>SAMEA5383971</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>ERR3275120</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>125816186</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>10677_0038</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>SAMEA5383975</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>ERR3275123</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>135618561</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>10677_0042</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>SAMEA5383959</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>ERR3275133</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>128150439</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>10677_0052</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>SAMEA5383964</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>ERR3275134</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>PRJEB31266</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>148552312</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>10677_0053</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SAMEA5383985</t>
+          <t>SAMEA5383990</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ERR3201378</t>
+          <t>ERR3201383</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,24 +478,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69455540</t>
+          <t>47531400</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10678_0004</t>
+          <t>10678_0009</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SAMEA5383993</t>
+          <t>SAMEA5384004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ERR3201386</t>
+          <t>ERR3201393</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,24 +505,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68131763</t>
+          <t>69995703</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10678_0012</t>
+          <t>10678_0023</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SAMEA5384006</t>
+          <t>SAMEA5384008</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ERR3201395</t>
+          <t>ERR3201397</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,24 +532,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>47350298</t>
+          <t>50555675</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10678_0025</t>
+          <t>10678_0027</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SAMEA5384007</t>
+          <t>SAMEA5384010</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ERR3201396</t>
+          <t>ERR3201399</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -559,24 +559,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>47032789</t>
+          <t>62195694</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10678_0026</t>
+          <t>10678_0029</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SAMEA5384009</t>
+          <t>SAMEA5384012</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ERR3201398</t>
+          <t>ERR3201401</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -586,24 +586,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70440843</t>
+          <t>79016767</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10678_0028</t>
+          <t>10678_0031</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SAMEA5384013</t>
+          <t>SAMEA5384015</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ERR3201402</t>
+          <t>ERR3201404</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -613,24 +613,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93553176</t>
+          <t>55829354</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10678_0032</t>
+          <t>10678_0034</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SAMEA5384014</t>
+          <t>SAMEA5384021</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ERR3201403</t>
+          <t>ERR3201410</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -640,24 +640,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>67883866</t>
+          <t>77208255</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10678_0033</t>
+          <t>10678_0040</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SAMEA5384017</t>
+          <t>SAMEA5384029</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ERR3201406</t>
+          <t>ERR3201418</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -667,24 +667,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>63200552</t>
+          <t>97737394</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10678_0036</t>
+          <t>10678_0048</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SAMEA5384020</t>
+          <t>SAMEA5383995</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ERR3201409</t>
+          <t>ERR3201419</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -694,24 +694,24 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70692388</t>
+          <t>73526083</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10678_0039</t>
+          <t>10678_0049</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SAMEA5384023</t>
+          <t>SAMEA5383999</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ERR3201412</t>
+          <t>ERR3201421</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -721,24 +721,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>58716856</t>
+          <t>47140975</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10678_0042</t>
+          <t>10678_0051</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SAMEA5384024</t>
+          <t>SAMEA5383790</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ERR3201413</t>
+          <t>ERR3211440</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -748,24 +748,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>53941237</t>
+          <t>78145386</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10678_0043</t>
+          <t>10674_0002</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SAMEA5384028</t>
+          <t>SAMEA5383794</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ERR3201417</t>
+          <t>ERR3211444</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -775,24 +775,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>102756726</t>
+          <t>84229087</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10678_0047</t>
+          <t>10674_0006</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SAMEA5383998</t>
+          <t>SAMEA5383796</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ERR3201420</t>
+          <t>ERR3211446</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -802,24 +802,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>58726333</t>
+          <t>91779005</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10678_0050</t>
+          <t>10674_0008</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SAMEA5384000</t>
+          <t>SAMEA5383799</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ERR3201422</t>
+          <t>ERR3211449</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -829,24 +829,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>44334011</t>
+          <t>86230917</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10678_0052</t>
+          <t>10674_0011</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SAMEA5383792</t>
+          <t>SAMEA5383804</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ERR3211442</t>
+          <t>ERR3211454</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -856,24 +856,24 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>98321715</t>
+          <t>61124550</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10674_0004</t>
+          <t>10674_0016</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SAMEA5383795</t>
+          <t>SAMEA5383806</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ERR3211445</t>
+          <t>ERR3211456</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -883,24 +883,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92583491</t>
+          <t>112424031</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10674_0007</t>
+          <t>10674_0018</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SAMEA5383797</t>
+          <t>SAMEA5383808</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ERR3211447</t>
+          <t>ERR3211458</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -910,24 +910,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>121410572</t>
+          <t>83612951</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10674_0009</t>
+          <t>10674_0020</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SAMEA5383800</t>
+          <t>SAMEA5383809</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ERR3211450</t>
+          <t>ERR3211459</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -937,24 +937,24 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>58851597</t>
+          <t>60675954</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10674_0012</t>
+          <t>10674_0021</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SAMEA5383801</t>
+          <t>SAMEA5383810</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ERR3211451</t>
+          <t>ERR3211460</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -964,24 +964,24 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>61689810</t>
+          <t>79841919</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10674_0013</t>
+          <t>10674_0022</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SAMEA5383803</t>
+          <t>SAMEA5383812</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ERR3211453</t>
+          <t>ERR3211462</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -991,24 +991,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>85303970</t>
+          <t>94161962</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10674_0015</t>
+          <t>10674_0024</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SAMEA5383805</t>
+          <t>SAMEA5383818</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ERR3211455</t>
+          <t>ERR3211468</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1018,24 +1018,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>122262622</t>
+          <t>36190697</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10674_0017</t>
+          <t>10674_0030</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SAMEA5383813</t>
+          <t>SAMEA5383819</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ERR3211463</t>
+          <t>ERR3211469</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1045,24 +1045,24 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>69783425</t>
+          <t>27443767</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10674_0025</t>
+          <t>10674_0031</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SAMEA5383814</t>
+          <t>SAMEA5383820</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ERR3211464</t>
+          <t>ERR3211470</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1072,24 +1072,24 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>56394876</t>
+          <t>39800477</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10674_0026</t>
+          <t>10674_0032</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SAMEA5383817</t>
+          <t>SAMEA5383822</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ERR3211467</t>
+          <t>ERR3211472</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1099,24 +1099,24 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>41405880</t>
+          <t>35781051</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10674_0029</t>
+          <t>10674_0034</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SAMEA5383821</t>
+          <t>SAMEA5383823</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ERR3211471</t>
+          <t>ERR3211473</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1126,24 +1126,24 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>45281477</t>
+          <t>38620381</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10674_0033</t>
+          <t>10674_0035</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SAMEA5383830</t>
+          <t>SAMEA5383824</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ERR3211480</t>
+          <t>ERR3211474</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1153,24 +1153,24 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>42144652</t>
+          <t>41317540</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10674_0042</t>
+          <t>10674_0036</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SAMEA5383831</t>
+          <t>SAMEA5383825</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ERR3211481</t>
+          <t>ERR3211475</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1180,24 +1180,24 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>39409960</t>
+          <t>27095946</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10674_0043</t>
+          <t>10674_0037</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SAMEA5383836</t>
+          <t>SAMEA5383827</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ERR3211486</t>
+          <t>ERR3211477</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1207,24 +1207,24 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>39766803</t>
+          <t>37784737</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10674_0048</t>
+          <t>10674_0039</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SAMEA5383838</t>
+          <t>SAMEA5383828</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ERR3220179</t>
+          <t>ERR3211478</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1234,24 +1234,24 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>74551893</t>
+          <t>33279840</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10675_0002</t>
+          <t>10674_0040</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SAMEA5383839</t>
+          <t>SAMEA5383832</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ERR3220180</t>
+          <t>ERR3211482</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1261,24 +1261,24 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>69964999</t>
+          <t>31115409</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10675_0003</t>
+          <t>10674_0044</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SAMEA5383842</t>
+          <t>SAMEA5383835</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ERR3220183</t>
+          <t>ERR3211485</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1288,24 +1288,24 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>66134313</t>
+          <t>37868636</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10675_0006</t>
+          <t>10674_0047</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SAMEA5383843</t>
+          <t>SAMEA5383841</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ERR3220184</t>
+          <t>ERR3220182</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1315,24 +1315,24 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>64533492</t>
+          <t>72280439</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10675_0007</t>
+          <t>10675_0005</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SAMEA5383845</t>
+          <t>SAMEA5383846</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ERR3220186</t>
+          <t>ERR3220187</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1342,24 +1342,24 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>77382493</t>
+          <t>82079657</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10675_0009</t>
+          <t>10675_0010</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SAMEA5383847</t>
+          <t>SAMEA5383848</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ERR3220188</t>
+          <t>ERR3220189</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1369,24 +1369,24 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>85729101</t>
+          <t>100685704</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10675_0011</t>
+          <t>10675_0012</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SAMEA5383854</t>
+          <t>SAMEA5383850</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ERR3220195</t>
+          <t>ERR3220191</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1396,24 +1396,24 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>81535663</t>
+          <t>91320818</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10675_0018</t>
+          <t>10675_0014</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SAMEA5383855</t>
+          <t>SAMEA5383853</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ERR3220196</t>
+          <t>ERR3220194</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1423,24 +1423,24 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>89546978</t>
+          <t>80851565</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10675_0019</t>
+          <t>10675_0017</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SAMEA5383859</t>
+          <t>SAMEA5383862</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ERR3220200</t>
+          <t>ERR3220203</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1450,24 +1450,24 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>73181846</t>
+          <t>61421647</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10675_0023</t>
+          <t>10675_0026</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SAMEA5383860</t>
+          <t>SAMEA5383865</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ERR3220201</t>
+          <t>ERR3220206</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1477,24 +1477,24 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>76355446</t>
+          <t>66275049</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10675_0024</t>
+          <t>10675_0029</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SAMEA5383861</t>
+          <t>SAMEA5383868</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ERR3220202</t>
+          <t>ERR3220209</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1504,24 +1504,24 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>78498400</t>
+          <t>64889856</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10675_0025</t>
+          <t>10675_0032</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SAMEA5383866</t>
+          <t>SAMEA5383875</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ERR3220207</t>
+          <t>ERR3220216</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1531,24 +1531,24 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>62441226</t>
+          <t>62754469</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10675_0030</t>
+          <t>10675_0039</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SAMEA5383867</t>
+          <t>SAMEA5383877</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ERR3220208</t>
+          <t>ERR3220217</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1558,24 +1558,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>60444819</t>
+          <t>67033955</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10675_0031</t>
+          <t>10675_0041</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SAMEA5383869</t>
+          <t>SAMEA5383882</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ERR3220210</t>
+          <t>ERR3220222</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1585,24 +1585,24 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>64997001</t>
+          <t>65453253</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10675_0033</t>
+          <t>10675_0046</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SAMEA5383871</t>
+          <t>SAMEA5383883</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ERR3220212</t>
+          <t>ERR3220223</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1612,24 +1612,24 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>57160651</t>
+          <t>62356450</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10675_0035</t>
+          <t>10675_0047</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SAMEA5383878</t>
+          <t>SAMEA5383884</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ERR3220218</t>
+          <t>ERR3220224</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1639,24 +1639,24 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>59076219</t>
+          <t>61747728</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10675_0042</t>
+          <t>10675_0048</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SAMEA5383880</t>
+          <t>SAMEA5383876</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ERR3220220</t>
+          <t>ERR3220225</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1666,24 +1666,24 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>60427548</t>
+          <t>61185675</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10675_0044</t>
+          <t>10675_0049</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SAMEA5383885</t>
+          <t>SAMEA5383887</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ERR3224567</t>
+          <t>ERR3224569</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1693,24 +1693,24 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>95857544</t>
+          <t>111353211</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10676_0001</t>
+          <t>10676_0003</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SAMEA5383888</t>
+          <t>SAMEA5383903</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ERR3224570</t>
+          <t>ERR3224583</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1720,24 +1720,24 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>97362728</t>
+          <t>114277109</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10676_0004</t>
+          <t>10676_0019</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SAMEA5383890</t>
+          <t>SAMEA5383912</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ERR3224572</t>
+          <t>ERR3224592</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1747,24 +1747,24 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>112943945</t>
+          <t>132210715</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10676_0006</t>
+          <t>10676_0028</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SAMEA5383894</t>
+          <t>SAMEA5383916</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ERR3224574</t>
+          <t>ERR3224596</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1774,24 +1774,24 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>115010434</t>
+          <t>122038749</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10676_0010</t>
+          <t>10676_0032</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SAMEA5383895</t>
+          <t>SAMEA5383922</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ERR3224575</t>
+          <t>ERR3224601</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1801,24 +1801,24 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>107056057</t>
+          <t>108747012</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10676_0011</t>
+          <t>10676_0037</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SAMEA5383900</t>
+          <t>SAMEA5383923</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ERR3224580</t>
+          <t>ERR3224602</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1828,24 +1828,24 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>128668578</t>
+          <t>124262486</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10676_0016</t>
+          <t>10676_0038</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SAMEA5383904</t>
+          <t>SAMEA5383931</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ERR3224584</t>
+          <t>ERR3224609</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1855,24 +1855,24 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>120323418</t>
+          <t>128860719</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10676_0020</t>
+          <t>10676_0046</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SAMEA5383905</t>
+          <t>SAMEA5383891</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ERR3224585</t>
+          <t>ERR3224612</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1882,24 +1882,24 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>137728945</t>
+          <t>90488725</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10676_0021</t>
+          <t>10676_0049</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SAMEA5383906</t>
+          <t>SAMEA5383929</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ERR3224586</t>
+          <t>ERR3224614</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1909,24 +1909,24 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>105920994</t>
+          <t>113605730</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10676_0022</t>
+          <t>10676_0051</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SAMEA5383907</t>
+          <t>SAMEA5383934</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ERR3224587</t>
+          <t>ERR3275091</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1936,24 +1936,24 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>103674030</t>
+          <t>128767155</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10676_0023</t>
+          <t>10677_0001</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SAMEA5383908</t>
+          <t>SAMEA5383936</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ERR3224588</t>
+          <t>ERR3275093</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1963,24 +1963,24 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>128046010</t>
+          <t>121117185</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10676_0024</t>
+          <t>10677_0003</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SAMEA5383909</t>
+          <t>SAMEA5383941</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ERR3224589</t>
+          <t>ERR3275098</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1990,24 +1990,24 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>113387279</t>
+          <t>133816015</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10676_0025</t>
+          <t>10677_0008</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SAMEA5383911</t>
+          <t>SAMEA5383942</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ERR3224591</t>
+          <t>ERR3275099</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2017,24 +2017,24 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>108692792</t>
+          <t>134361681</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10676_0027</t>
+          <t>10677_0009</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SAMEA5383913</t>
+          <t>SAMEA5383943</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ERR3224593</t>
+          <t>ERR3275100</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2044,24 +2044,24 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>101625927</t>
+          <t>140498343</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10676_0029</t>
+          <t>10677_0010</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SAMEA5383915</t>
+          <t>SAMEA5383945</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ERR3224595</t>
+          <t>ERR3275102</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2071,24 +2071,24 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>101040697</t>
+          <t>137110708</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10676_0031</t>
+          <t>10677_0012</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SAMEA5383925</t>
+          <t>SAMEA5383947</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ERR3224604</t>
+          <t>ERR3275103</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2098,24 +2098,24 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>97208864</t>
+          <t>141810702</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10676_0040</t>
+          <t>10677_0014</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SAMEA5383926</t>
+          <t>SAMEA5383948</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ERR3224605</t>
+          <t>ERR3275104</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2125,24 +2125,24 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>111629609</t>
+          <t>152661013</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10676_0041</t>
+          <t>10677_0015</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SAMEA5383927</t>
+          <t>SAMEA5383951</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ERR3224606</t>
+          <t>ERR3275107</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2152,24 +2152,24 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>100816571</t>
+          <t>139065577</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10676_0042</t>
+          <t>10677_0018</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SAMEA5383928</t>
+          <t>SAMEA5383952</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ERR3224607</t>
+          <t>ERR3275108</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2179,24 +2179,24 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>107829006</t>
+          <t>144223344</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10676_0043</t>
+          <t>10677_0019</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SAMEA5383932</t>
+          <t>SAMEA5383954</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ERR3224610</t>
+          <t>ERR3275109</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2206,24 +2206,24 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>123968719</t>
+          <t>131868728</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10676_0047</t>
+          <t>10677_0021</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SAMEA5383933</t>
+          <t>SAMEA5383958</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ERR3224611</t>
+          <t>ERR3275112</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2233,24 +2233,24 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>129942570</t>
+          <t>136868181</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10676_0048</t>
+          <t>10677_0025</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SAMEA5383892</t>
+          <t>SAMEA5383961</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ERR3224613</t>
+          <t>ERR3275114</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2260,24 +2260,24 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>97430908</t>
+          <t>141067096</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10676_0050</t>
+          <t>10677_0028</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SAMEA5383944</t>
+          <t>SAMEA5383962</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ERR3275101</t>
+          <t>ERR3275115</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2287,24 +2287,24 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>133345516</t>
+          <t>120658116</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10677_0011</t>
+          <t>10677_0029</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SAMEA5383950</t>
+          <t>SAMEA5383966</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ERR3275106</t>
+          <t>ERR3275117</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2314,24 +2314,24 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>159451022</t>
+          <t>125046102</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10677_0017</t>
+          <t>10677_0033</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SAMEA5383956</t>
+          <t>SAMEA5383979</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ERR3275111</t>
+          <t>ERR3275127</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2341,24 +2341,24 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>140531343</t>
+          <t>133226909</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10677_0023</t>
+          <t>10677_0046</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SAMEA5383963</t>
+          <t>SAMEA5383953</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ERR3275116</t>
+          <t>ERR3275131</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2368,24 +2368,24 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>120648014</t>
+          <t>127887541</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10677_0030</t>
+          <t>10677_0050</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SAMEA5383968</t>
+          <t>SAMEA5383957</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ERR3275119</t>
+          <t>ERR3275132</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2395,24 +2395,24 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>128456056</t>
+          <t>127269231</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10677_0035</t>
+          <t>10677_0051</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SAMEA5383973</t>
+          <t>SAMEA5383969</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ERR3275121</t>
+          <t>ERR3275136</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2422,24 +2422,24 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>126311197</t>
+          <t>139756973</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10677_0040</t>
+          <t>10677_0055</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SAMEA5383974</t>
+          <t>SAMEA5383970</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ERR3275122</t>
+          <t>ERR3275137</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2449,24 +2449,24 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>132483373</t>
+          <t>138436977</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10677_0041</t>
+          <t>10677_0056</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SAMEA5383976</t>
+          <t>SAMEA5383983</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ERR3275124</t>
+          <t>ERR3201376</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2476,24 +2476,24 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>119053135</t>
+          <t>56237450</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10677_0043</t>
+          <t>10678_0002</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SAMEA5383977</t>
+          <t>SAMEA5383984</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ERR3275125</t>
+          <t>ERR3201377</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2503,24 +2503,24 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>128523824</t>
+          <t>51129912</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10677_0044</t>
+          <t>10678_0003</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SAMEA5383978</t>
+          <t>SAMEA5383986</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ERR3275126</t>
+          <t>ERR3201379</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2530,24 +2530,24 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>136527050</t>
+          <t>68358031</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10677_0045</t>
+          <t>10678_0005</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SAMEA5383980</t>
+          <t>SAMEA5384002</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ERR3275128</t>
+          <t>ERR3201391</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2557,24 +2557,24 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>134074212</t>
+          <t>55274916</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10677_0047</t>
+          <t>10678_0021</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SAMEA5383981</t>
+          <t>SAMEA5384003</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ERR3275129</t>
+          <t>ERR3201392</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2584,24 +2584,24 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>125337628</t>
+          <t>54456304</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10677_0048</t>
+          <t>10678_0022</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SAMEA5383946</t>
+          <t>SAMEA5384005</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ERR3275130</t>
+          <t>ERR3201394</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2611,24 +2611,24 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>128811180</t>
+          <t>70725060</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10677_0049</t>
+          <t>10678_0024</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SAMEA5383965</t>
+          <t>SAMEA5384011</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ERR3275135</t>
+          <t>ERR3201400</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2638,24 +2638,24 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>142578424</t>
+          <t>92727327</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>10677_0054</t>
+          <t>10678_0030</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SAMEA5383972</t>
+          <t>SAMEA5384027</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ERR3275138</t>
+          <t>ERR3201416</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2665,24 +2665,24 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>136213219</t>
+          <t>84525742</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>10677_0057</t>
+          <t>10678_0046</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SAMEA5383983</t>
+          <t>SAMEA5383997</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ERR3201376</t>
+          <t>ERR3201389</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2692,24 +2692,24 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>56237450</t>
+          <t>68569023</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>10678_0002</t>
+          <t>10678_0016</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SAMEA5383984</t>
+          <t>SAMEA5384001</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ERR3201377</t>
+          <t>ERR3201390</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2719,24 +2719,24 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>51129912</t>
+          <t>68412279</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>10678_0003</t>
+          <t>10678_0020</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SAMEA5383986</t>
+          <t>SAMEA5383982</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ERR3201379</t>
+          <t>ERR3201375</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2746,24 +2746,24 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>68358031</t>
+          <t>48408772</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>10678_0005</t>
+          <t>10678_0001</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SAMEA5383990</t>
+          <t>SAMEA5383987</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ERR3201383</t>
+          <t>ERR3201380</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2773,24 +2773,24 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>47531400</t>
+          <t>78541868</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>10678_0009</t>
+          <t>10678_0006</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SAMEA5384002</t>
+          <t>SAMEA5383988</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ERR3201391</t>
+          <t>ERR3201381</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2800,24 +2800,24 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>55274916</t>
+          <t>63647835</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>10678_0021</t>
+          <t>10678_0007</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SAMEA5384003</t>
+          <t>SAMEA5383989</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ERR3201392</t>
+          <t>ERR3201382</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2827,24 +2827,24 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>54456304</t>
+          <t>71326307</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>10678_0022</t>
+          <t>10678_0008</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SAMEA5384004</t>
+          <t>SAMEA5383991</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ERR3201393</t>
+          <t>ERR3201384</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2854,24 +2854,24 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>69995703</t>
+          <t>53381418</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>10678_0023</t>
+          <t>10678_0010</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SAMEA5384005</t>
+          <t>SAMEA5383992</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ERR3201394</t>
+          <t>ERR3201385</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2881,24 +2881,24 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>70725060</t>
+          <t>42546943</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>10678_0024</t>
+          <t>10678_0011</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SAMEA5384008</t>
+          <t>SAMEA5383994</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ERR3201397</t>
+          <t>ERR3201387</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2908,24 +2908,24 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>50555675</t>
+          <t>50357041</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>10678_0027</t>
+          <t>10678_0013</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SAMEA5384010</t>
+          <t>SAMEA5383996</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ERR3201399</t>
+          <t>ERR3201388</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2935,24 +2935,24 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>62195694</t>
+          <t>39811521</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>10678_0029</t>
+          <t>10678_0015</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SAMEA5384011</t>
+          <t>SAMEA5384016</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ERR3201400</t>
+          <t>ERR3201405</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2962,24 +2962,24 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>92727327</t>
+          <t>81449754</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>10678_0030</t>
+          <t>10678_0035</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SAMEA5384012</t>
+          <t>SAMEA5384018</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ERR3201401</t>
+          <t>ERR3201407</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2989,24 +2989,24 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>79016767</t>
+          <t>92464628</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>10678_0031</t>
+          <t>10678_0037</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SAMEA5384015</t>
+          <t>SAMEA5384019</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ERR3201404</t>
+          <t>ERR3201408</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3016,24 +3016,24 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>55829354</t>
+          <t>95243321</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>10678_0034</t>
+          <t>10678_0038</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SAMEA5384021</t>
+          <t>SAMEA5384022</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ERR3201410</t>
+          <t>ERR3201411</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3043,24 +3043,24 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>77208255</t>
+          <t>60936220</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>10678_0040</t>
+          <t>10678_0041</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SAMEA5384027</t>
+          <t>SAMEA5384025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ERR3201416</t>
+          <t>ERR3201414</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3070,24 +3070,24 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>84525742</t>
+          <t>56313694</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>10678_0046</t>
+          <t>10678_0044</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SAMEA5384029</t>
+          <t>SAMEA5384026</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ERR3201418</t>
+          <t>ERR3201415</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3097,24 +3097,24 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>97737394</t>
+          <t>75825046</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>10678_0048</t>
+          <t>10678_0045</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SAMEA5383995</t>
+          <t>SAMEA5383789</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ERR3201419</t>
+          <t>ERR3211439</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3124,24 +3124,24 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>73526083</t>
+          <t>85361582</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>10678_0049</t>
+          <t>10674_0001</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SAMEA5383999</t>
+          <t>SAMEA5383791</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ERR3201421</t>
+          <t>ERR3211441</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3151,24 +3151,24 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>47140975</t>
+          <t>90368478</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>10678_0051</t>
+          <t>10674_0003</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SAMEA5383790</t>
+          <t>SAMEA5383793</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ERR3211440</t>
+          <t>ERR3211443</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3178,24 +3178,24 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>78145386</t>
+          <t>89084010</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>10674_0002</t>
+          <t>10674_0005</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SAMEA5383794</t>
+          <t>SAMEA5383798</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ERR3211444</t>
+          <t>ERR3211448</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3205,24 +3205,24 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>84229087</t>
+          <t>50961087</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>10674_0006</t>
+          <t>10674_0010</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SAMEA5383796</t>
+          <t>SAMEA5383802</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ERR3211446</t>
+          <t>ERR3211452</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3232,24 +3232,24 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>91779005</t>
+          <t>84186900</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>10674_0008</t>
+          <t>10674_0014</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SAMEA5383799</t>
+          <t>SAMEA5383807</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ERR3211449</t>
+          <t>ERR3211457</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3259,24 +3259,24 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>86230917</t>
+          <t>52007080</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>10674_0011</t>
+          <t>10674_0019</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SAMEA5383804</t>
+          <t>SAMEA5383811</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ERR3211454</t>
+          <t>ERR3211461</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3286,24 +3286,24 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>61124550</t>
+          <t>105506853</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>10674_0016</t>
+          <t>10674_0023</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SAMEA5383806</t>
+          <t>SAMEA5383815</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ERR3211456</t>
+          <t>ERR3211465</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3313,24 +3313,24 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>112424031</t>
+          <t>38012331</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>10674_0018</t>
+          <t>10674_0027</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SAMEA5383808</t>
+          <t>SAMEA5383816</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ERR3211458</t>
+          <t>ERR3211466</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3340,24 +3340,24 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>83612951</t>
+          <t>26156779</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>10674_0020</t>
+          <t>10674_0028</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SAMEA5383809</t>
+          <t>SAMEA5383826</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ERR3211459</t>
+          <t>ERR3211476</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3367,24 +3367,24 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>60675954</t>
+          <t>40521810</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>10674_0021</t>
+          <t>10674_0038</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SAMEA5383810</t>
+          <t>SAMEA5383829</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ERR3211460</t>
+          <t>ERR3211479</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3394,24 +3394,24 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>79841919</t>
+          <t>37388147</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>10674_0022</t>
+          <t>10674_0041</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SAMEA5383812</t>
+          <t>SAMEA5383833</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ERR3211462</t>
+          <t>ERR3211483</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3421,24 +3421,24 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>94161962</t>
+          <t>41861714</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>10674_0024</t>
+          <t>10674_0045</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SAMEA5383818</t>
+          <t>SAMEA5383834</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ERR3211468</t>
+          <t>ERR3211484</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3448,24 +3448,24 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>36190697</t>
+          <t>47078020</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>10674_0030</t>
+          <t>10674_0046</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SAMEA5383819</t>
+          <t>SAMEA5383837</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ERR3211469</t>
+          <t>ERR3220178</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3475,24 +3475,24 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>27443767</t>
+          <t>60526041</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>10674_0031</t>
+          <t>10675_0001</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SAMEA5383820</t>
+          <t>SAMEA5383840</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ERR3211470</t>
+          <t>ERR3220181</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3502,24 +3502,24 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>39800477</t>
+          <t>67857198</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>10674_0032</t>
+          <t>10675_0004</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SAMEA5383822</t>
+          <t>SAMEA5383844</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ERR3211472</t>
+          <t>ERR3220185</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3529,24 +3529,24 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>35781051</t>
+          <t>70390366</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>10674_0034</t>
+          <t>10675_0008</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SAMEA5383823</t>
+          <t>SAMEA5383849</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ERR3211473</t>
+          <t>ERR3220190</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3556,24 +3556,24 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>38620381</t>
+          <t>81074645</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>10674_0035</t>
+          <t>10675_0013</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SAMEA5383824</t>
+          <t>SAMEA5383851</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ERR3211474</t>
+          <t>ERR3220192</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3583,24 +3583,24 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>41317540</t>
+          <t>67460586</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>10674_0036</t>
+          <t>10675_0015</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SAMEA5383825</t>
+          <t>SAMEA5383852</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ERR3211475</t>
+          <t>ERR3220193</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3610,24 +3610,24 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>27095946</t>
+          <t>68128512</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>10674_0037</t>
+          <t>10675_0016</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SAMEA5383827</t>
+          <t>SAMEA5383856</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ERR3211477</t>
+          <t>ERR3220197</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3637,24 +3637,24 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>37784737</t>
+          <t>81661309</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>10674_0039</t>
+          <t>10675_0020</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SAMEA5383828</t>
+          <t>SAMEA5383857</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ERR3211478</t>
+          <t>ERR3220198</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3664,24 +3664,24 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>33279840</t>
+          <t>72833513</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>10674_0040</t>
+          <t>10675_0021</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SAMEA5383832</t>
+          <t>SAMEA5383858</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ERR3211482</t>
+          <t>ERR3220199</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3691,24 +3691,24 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>31115409</t>
+          <t>69275482</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>10674_0044</t>
+          <t>10675_0022</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SAMEA5383835</t>
+          <t>SAMEA5383863</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ERR3211485</t>
+          <t>ERR3220204</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3718,24 +3718,24 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>37868636</t>
+          <t>58105689</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>10674_0047</t>
+          <t>10675_0027</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SAMEA5383841</t>
+          <t>SAMEA5383864</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ERR3220182</t>
+          <t>ERR3220205</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3745,24 +3745,24 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>72280439</t>
+          <t>65354306</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>10675_0005</t>
+          <t>10675_0028</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SAMEA5383846</t>
+          <t>SAMEA5383870</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ERR3220187</t>
+          <t>ERR3220211</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3772,24 +3772,24 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>82079657</t>
+          <t>59061793</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>10675_0010</t>
+          <t>10675_0034</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SAMEA5383848</t>
+          <t>SAMEA5383872</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ERR3220189</t>
+          <t>ERR3220213</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3799,24 +3799,24 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>100685704</t>
+          <t>60201192</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>10675_0012</t>
+          <t>10675_0036</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SAMEA5383850</t>
+          <t>SAMEA5383873</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ERR3220191</t>
+          <t>ERR3220214</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3826,24 +3826,24 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>91320818</t>
+          <t>66520701</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>10675_0014</t>
+          <t>10675_0037</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SAMEA5383853</t>
+          <t>SAMEA5383874</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ERR3220194</t>
+          <t>ERR3220215</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3853,24 +3853,24 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>80851565</t>
+          <t>67285831</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>10675_0017</t>
+          <t>10675_0038</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SAMEA5383862</t>
+          <t>SAMEA5383879</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ERR3220203</t>
+          <t>ERR3220219</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3880,24 +3880,24 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>61421647</t>
+          <t>61643086</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>10675_0026</t>
+          <t>10675_0043</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SAMEA5383865</t>
+          <t>SAMEA5383881</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ERR3220206</t>
+          <t>ERR3220221</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3907,24 +3907,24 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>66275049</t>
+          <t>61494289</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>10675_0029</t>
+          <t>10675_0045</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SAMEA5383868</t>
+          <t>SAMEA5383886</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ERR3220209</t>
+          <t>ERR3224568</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3934,24 +3934,24 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>64889856</t>
+          <t>110700266</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>10675_0032</t>
+          <t>10676_0002</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SAMEA5383875</t>
+          <t>SAMEA5383889</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ERR3220216</t>
+          <t>ERR3224571</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3961,24 +3961,24 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>62754469</t>
+          <t>89166754</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>10675_0039</t>
+          <t>10676_0005</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SAMEA5383877</t>
+          <t>SAMEA5383893</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ERR3220217</t>
+          <t>ERR3224573</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3988,24 +3988,24 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>67033955</t>
+          <t>109713843</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>10675_0041</t>
+          <t>10676_0009</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SAMEA5383882</t>
+          <t>SAMEA5383896</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ERR3220222</t>
+          <t>ERR3224576</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4015,24 +4015,24 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>65453253</t>
+          <t>132287068</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>10675_0046</t>
+          <t>10676_0012</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SAMEA5383883</t>
+          <t>SAMEA5383897</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ERR3220223</t>
+          <t>ERR3224577</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4042,24 +4042,24 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>62356450</t>
+          <t>104772751</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>10675_0047</t>
+          <t>10676_0013</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SAMEA5383884</t>
+          <t>SAMEA5383898</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ERR3220224</t>
+          <t>ERR3224578</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4069,24 +4069,24 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>61747728</t>
+          <t>105859889</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>10675_0048</t>
+          <t>10676_0014</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SAMEA5383876</t>
+          <t>SAMEA5383899</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ERR3220225</t>
+          <t>ERR3224579</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4096,24 +4096,24 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>61185675</t>
+          <t>119367037</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>10675_0049</t>
+          <t>10676_0015</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SAMEA5383887</t>
+          <t>SAMEA5383901</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ERR3224569</t>
+          <t>ERR3224581</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4123,24 +4123,24 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>111353211</t>
+          <t>116173964</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>10676_0003</t>
+          <t>10676_0017</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SAMEA5383903</t>
+          <t>SAMEA5383902</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ERR3224583</t>
+          <t>ERR3224582</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4150,24 +4150,24 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>114277109</t>
+          <t>111675068</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>10676_0019</t>
+          <t>10676_0018</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SAMEA5383912</t>
+          <t>SAMEA5383910</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ERR3224592</t>
+          <t>ERR3224590</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4177,24 +4177,24 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>132210715</t>
+          <t>109486347</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>10676_0028</t>
+          <t>10676_0026</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SAMEA5383916</t>
+          <t>SAMEA5383914</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ERR3224596</t>
+          <t>ERR3224594</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4204,24 +4204,24 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>122038749</t>
+          <t>122728732</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>10676_0032</t>
+          <t>10676_0030</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SAMEA5383922</t>
+          <t>SAMEA5383917</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ERR3224601</t>
+          <t>ERR3224597</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4231,24 +4231,24 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>108747012</t>
+          <t>134601253</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>10676_0037</t>
+          <t>10676_0033</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SAMEA5383923</t>
+          <t>SAMEA5383919</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ERR3224602</t>
+          <t>ERR3224598</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4258,24 +4258,24 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>124262486</t>
+          <t>128396879</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>10676_0038</t>
+          <t>10676_0034</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SAMEA5383931</t>
+          <t>SAMEA5383920</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ERR3224609</t>
+          <t>ERR3224599</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4285,24 +4285,24 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>128860719</t>
+          <t>125052574</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>10676_0046</t>
+          <t>10676_0035</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SAMEA5383891</t>
+          <t>SAMEA5383921</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ERR3224612</t>
+          <t>ERR3224600</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4312,24 +4312,24 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>90488725</t>
+          <t>119385819</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>10676_0049</t>
+          <t>10676_0036</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SAMEA5383929</t>
+          <t>SAMEA5383924</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ERR3224614</t>
+          <t>ERR3224603</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4339,24 +4339,24 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>113605730</t>
+          <t>102298834</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>10676_0051</t>
+          <t>10676_0039</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SAMEA5383934</t>
+          <t>SAMEA5383930</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ERR3275091</t>
+          <t>ERR3224608</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4366,24 +4366,24 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>128767155</t>
+          <t>114265510</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>10677_0001</t>
+          <t>10676_0045</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SAMEA5383936</t>
+          <t>SAMEA5383935</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ERR3275093</t>
+          <t>ERR3275092</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4393,24 +4393,24 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>121117185</t>
+          <t>124570715</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>10677_0003</t>
+          <t>10677_0002</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SAMEA5383941</t>
+          <t>SAMEA5383937</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ERR3275098</t>
+          <t>ERR3275094</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4420,24 +4420,24 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>133816015</t>
+          <t>136364943</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>10677_0008</t>
+          <t>10677_0004</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SAMEA5383942</t>
+          <t>SAMEA5383938</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ERR3275099</t>
+          <t>ERR3275095</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4447,24 +4447,24 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>134361681</t>
+          <t>133040571</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>10677_0009</t>
+          <t>10677_0005</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SAMEA5383943</t>
+          <t>SAMEA5383939</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ERR3275100</t>
+          <t>ERR3275096</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4474,24 +4474,24 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>140498343</t>
+          <t>130973399</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>10677_0010</t>
+          <t>10677_0006</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SAMEA5383945</t>
+          <t>SAMEA5383940</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ERR3275102</t>
+          <t>ERR3275097</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4501,24 +4501,24 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>137110708</t>
+          <t>116730496</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>10677_0012</t>
+          <t>10677_0007</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SAMEA5383947</t>
+          <t>SAMEA5383949</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ERR3275103</t>
+          <t>ERR3275105</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4528,24 +4528,24 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>141810702</t>
+          <t>142248686</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>10677_0014</t>
+          <t>10677_0016</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SAMEA5383948</t>
+          <t>SAMEA5383955</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ERR3275104</t>
+          <t>ERR3275110</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4555,24 +4555,24 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>152661013</t>
+          <t>144763036</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>10677_0015</t>
+          <t>10677_0022</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SAMEA5383951</t>
+          <t>SAMEA5383960</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ERR3275107</t>
+          <t>ERR3275113</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4582,24 +4582,24 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>139065577</t>
+          <t>132000998</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>10677_0018</t>
+          <t>10677_0027</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SAMEA5383952</t>
+          <t>SAMEA5383967</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ERR3275108</t>
+          <t>ERR3275118</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4609,24 +4609,24 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>144223344</t>
+          <t>130920072</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>10677_0019</t>
+          <t>10677_0034</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SAMEA5383954</t>
+          <t>SAMEA5383971</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ERR3275109</t>
+          <t>ERR3275120</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4636,24 +4636,24 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>131868728</t>
+          <t>125816186</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>10677_0021</t>
+          <t>10677_0038</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SAMEA5383958</t>
+          <t>SAMEA5383975</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ERR3275112</t>
+          <t>ERR3275123</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4663,24 +4663,24 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>136868181</t>
+          <t>135618561</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>10677_0025</t>
+          <t>10677_0042</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SAMEA5383961</t>
+          <t>SAMEA5383959</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ERR3275114</t>
+          <t>ERR3275133</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4690,24 +4690,24 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>141067096</t>
+          <t>128150439</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>10677_0028</t>
+          <t>10677_0052</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SAMEA5383962</t>
+          <t>SAMEA5383964</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ERR3275115</t>
+          <t>ERR3275134</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4717,24 +4717,24 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>120658116</t>
+          <t>148552312</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>10677_0029</t>
+          <t>10677_0053</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SAMEA5383966</t>
+          <t>SAMEA5383985</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ERR3275117</t>
+          <t>ERR3201378</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4744,24 +4744,24 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>125046102</t>
+          <t>69455540</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>10677_0033</t>
+          <t>10678_0004</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SAMEA5383979</t>
+          <t>SAMEA5384006</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ERR3275127</t>
+          <t>ERR3201395</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4771,24 +4771,24 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>133226909</t>
+          <t>47350298</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>10677_0046</t>
+          <t>10678_0025</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SAMEA5383953</t>
+          <t>SAMEA5384013</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ERR3275131</t>
+          <t>ERR3201402</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4798,24 +4798,24 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>127887541</t>
+          <t>93553176</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>10677_0050</t>
+          <t>10678_0032</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SAMEA5383957</t>
+          <t>SAMEA5384017</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ERR3275132</t>
+          <t>ERR3201406</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4825,24 +4825,24 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>127269231</t>
+          <t>63200552</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>10677_0051</t>
+          <t>10678_0036</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SAMEA5383969</t>
+          <t>SAMEA5384023</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ERR3275136</t>
+          <t>ERR3201412</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4852,24 +4852,24 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>139756973</t>
+          <t>58716856</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>10677_0055</t>
+          <t>10678_0042</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SAMEA5383970</t>
+          <t>SAMEA5384000</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ERR3275137</t>
+          <t>ERR3201422</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4879,24 +4879,24 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>138436977</t>
+          <t>44334011</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>10677_0056</t>
+          <t>10678_0052</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SAMEA5383982</t>
+          <t>SAMEA5383792</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ERR3201375</t>
+          <t>ERR3211442</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4906,24 +4906,24 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>48408772</t>
+          <t>98321715</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>10678_0001</t>
+          <t>10674_0004</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SAMEA5383987</t>
+          <t>SAMEA5383795</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ERR3201380</t>
+          <t>ERR3211445</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4933,24 +4933,24 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>78541868</t>
+          <t>92583491</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>10678_0006</t>
+          <t>10674_0007</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SAMEA5383988</t>
+          <t>SAMEA5383797</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ERR3201381</t>
+          <t>ERR3211447</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4960,24 +4960,24 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>63647835</t>
+          <t>121410572</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>10678_0007</t>
+          <t>10674_0009</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SAMEA5383989</t>
+          <t>SAMEA5383800</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ERR3201382</t>
+          <t>ERR3211450</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4987,24 +4987,24 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>71326307</t>
+          <t>58851597</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>10678_0008</t>
+          <t>10674_0012</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SAMEA5383991</t>
+          <t>SAMEA5383801</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ERR3201384</t>
+          <t>ERR3211451</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5014,24 +5014,24 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>53381418</t>
+          <t>61689810</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>10678_0010</t>
+          <t>10674_0013</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SAMEA5383992</t>
+          <t>SAMEA5383803</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ERR3201385</t>
+          <t>ERR3211453</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5041,24 +5041,24 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>42546943</t>
+          <t>85303970</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>10678_0011</t>
+          <t>10674_0015</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SAMEA5383994</t>
+          <t>SAMEA5383805</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ERR3201387</t>
+          <t>ERR3211455</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5068,24 +5068,24 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>50357041</t>
+          <t>122262622</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>10678_0013</t>
+          <t>10674_0017</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SAMEA5383996</t>
+          <t>SAMEA5383813</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ERR3201388</t>
+          <t>ERR3211463</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5095,24 +5095,24 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>39811521</t>
+          <t>69783425</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>10678_0015</t>
+          <t>10674_0025</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SAMEA5383997</t>
+          <t>SAMEA5383814</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ERR3201389</t>
+          <t>ERR3211464</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5122,24 +5122,24 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>68569023</t>
+          <t>56394876</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>10678_0016</t>
+          <t>10674_0026</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SAMEA5384001</t>
+          <t>SAMEA5383817</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ERR3201390</t>
+          <t>ERR3211467</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5149,24 +5149,24 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>68412279</t>
+          <t>41405880</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>10678_0020</t>
+          <t>10674_0029</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SAMEA5384016</t>
+          <t>SAMEA5383821</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ERR3201405</t>
+          <t>ERR3211471</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5176,24 +5176,24 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>81449754</t>
+          <t>45281477</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>10678_0035</t>
+          <t>10674_0033</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SAMEA5384018</t>
+          <t>SAMEA5383830</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ERR3201407</t>
+          <t>ERR3211480</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5203,24 +5203,24 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>92464628</t>
+          <t>42144652</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>10678_0037</t>
+          <t>10674_0042</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SAMEA5384019</t>
+          <t>SAMEA5383831</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ERR3201408</t>
+          <t>ERR3211481</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5230,24 +5230,24 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>95243321</t>
+          <t>39409960</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>10678_0038</t>
+          <t>10674_0043</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SAMEA5384022</t>
+          <t>SAMEA5383836</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ERR3201411</t>
+          <t>ERR3211486</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5257,24 +5257,24 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>60936220</t>
+          <t>39766803</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>10678_0041</t>
+          <t>10674_0048</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SAMEA5384025</t>
+          <t>SAMEA5383838</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ERR3201414</t>
+          <t>ERR3220179</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5284,24 +5284,24 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>56313694</t>
+          <t>74551893</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>10678_0044</t>
+          <t>10675_0002</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SAMEA5384026</t>
+          <t>SAMEA5383839</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ERR3201415</t>
+          <t>ERR3220180</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5311,24 +5311,24 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>75825046</t>
+          <t>69964999</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>10678_0045</t>
+          <t>10675_0003</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SAMEA5383789</t>
+          <t>SAMEA5383842</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ERR3211439</t>
+          <t>ERR3220183</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5338,24 +5338,24 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>85361582</t>
+          <t>66134313</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>10674_0001</t>
+          <t>10675_0006</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SAMEA5383791</t>
+          <t>SAMEA5383843</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ERR3211441</t>
+          <t>ERR3220184</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5365,24 +5365,24 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>90368478</t>
+          <t>64533492</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>10674_0003</t>
+          <t>10675_0007</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SAMEA5383793</t>
+          <t>SAMEA5383845</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ERR3211443</t>
+          <t>ERR3220186</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5392,24 +5392,24 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>89084010</t>
+          <t>77382493</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>10674_0005</t>
+          <t>10675_0009</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SAMEA5383798</t>
+          <t>SAMEA5383847</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ERR3211448</t>
+          <t>ERR3220188</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5419,24 +5419,24 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>50961087</t>
+          <t>85729101</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>10674_0010</t>
+          <t>10675_0011</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SAMEA5383802</t>
+          <t>SAMEA5383854</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ERR3211452</t>
+          <t>ERR3220195</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5446,24 +5446,24 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>84186900</t>
+          <t>81535663</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>10674_0014</t>
+          <t>10675_0018</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SAMEA5383807</t>
+          <t>SAMEA5383855</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ERR3211457</t>
+          <t>ERR3220196</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5473,24 +5473,24 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>52007080</t>
+          <t>89546978</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>10674_0019</t>
+          <t>10675_0019</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SAMEA5383811</t>
+          <t>SAMEA5383859</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ERR3211461</t>
+          <t>ERR3220200</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5500,24 +5500,24 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>105506853</t>
+          <t>73181846</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>10674_0023</t>
+          <t>10675_0023</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SAMEA5383815</t>
+          <t>SAMEA5383860</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ERR3211465</t>
+          <t>ERR3220201</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5527,24 +5527,24 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>38012331</t>
+          <t>76355446</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>10674_0027</t>
+          <t>10675_0024</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SAMEA5383816</t>
+          <t>SAMEA5383861</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ERR3211466</t>
+          <t>ERR3220202</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5554,24 +5554,24 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>26156779</t>
+          <t>78498400</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>10674_0028</t>
+          <t>10675_0025</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SAMEA5383826</t>
+          <t>SAMEA5383866</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ERR3211476</t>
+          <t>ERR3220207</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5581,24 +5581,24 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>40521810</t>
+          <t>62441226</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>10674_0038</t>
+          <t>10675_0030</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SAMEA5383829</t>
+          <t>SAMEA5383867</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ERR3211479</t>
+          <t>ERR3220208</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5608,24 +5608,24 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>37388147</t>
+          <t>60444819</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>10674_0041</t>
+          <t>10675_0031</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SAMEA5383833</t>
+          <t>SAMEA5383869</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ERR3211483</t>
+          <t>ERR3220210</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5635,24 +5635,24 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>41861714</t>
+          <t>64997001</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>10674_0045</t>
+          <t>10675_0033</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SAMEA5383834</t>
+          <t>SAMEA5383871</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ERR3211484</t>
+          <t>ERR3220212</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5662,24 +5662,24 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>47078020</t>
+          <t>57160651</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>10674_0046</t>
+          <t>10675_0035</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SAMEA5383837</t>
+          <t>SAMEA5383878</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ERR3220178</t>
+          <t>ERR3220218</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5689,24 +5689,24 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>60526041</t>
+          <t>59076219</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>10675_0001</t>
+          <t>10675_0042</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SAMEA5383840</t>
+          <t>SAMEA5383880</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ERR3220181</t>
+          <t>ERR3220220</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5716,24 +5716,24 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>67857198</t>
+          <t>60427548</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>10675_0004</t>
+          <t>10675_0044</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SAMEA5383844</t>
+          <t>SAMEA5383885</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ERR3220185</t>
+          <t>ERR3224567</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5743,24 +5743,24 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>70390366</t>
+          <t>95857544</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>10675_0008</t>
+          <t>10676_0001</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SAMEA5383849</t>
+          <t>SAMEA5383888</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ERR3220190</t>
+          <t>ERR3224570</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5770,24 +5770,24 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>81074645</t>
+          <t>97362728</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>10675_0013</t>
+          <t>10676_0004</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SAMEA5383851</t>
+          <t>SAMEA5383890</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ERR3220192</t>
+          <t>ERR3224572</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5797,24 +5797,24 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>67460586</t>
+          <t>112943945</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>10675_0015</t>
+          <t>10676_0006</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SAMEA5383852</t>
+          <t>SAMEA5383894</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ERR3220193</t>
+          <t>ERR3224574</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5824,24 +5824,24 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>68128512</t>
+          <t>115010434</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>10675_0016</t>
+          <t>10676_0010</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SAMEA5383856</t>
+          <t>SAMEA5383895</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ERR3220197</t>
+          <t>ERR3224575</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5851,24 +5851,24 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>81661309</t>
+          <t>107056057</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>10675_0020</t>
+          <t>10676_0011</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SAMEA5383857</t>
+          <t>SAMEA5383900</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ERR3220198</t>
+          <t>ERR3224580</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5878,24 +5878,24 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>72833513</t>
+          <t>128668578</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>10675_0021</t>
+          <t>10676_0016</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SAMEA5383858</t>
+          <t>SAMEA5383904</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ERR3220199</t>
+          <t>ERR3224584</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5905,24 +5905,24 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>69275482</t>
+          <t>120323418</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>10675_0022</t>
+          <t>10676_0020</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SAMEA5383863</t>
+          <t>SAMEA5383905</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ERR3220204</t>
+          <t>ERR3224585</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5932,24 +5932,24 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>58105689</t>
+          <t>137728945</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>10675_0027</t>
+          <t>10676_0021</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SAMEA5383864</t>
+          <t>SAMEA5383906</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ERR3220205</t>
+          <t>ERR3224586</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5959,24 +5959,24 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>65354306</t>
+          <t>105920994</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>10675_0028</t>
+          <t>10676_0022</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SAMEA5383870</t>
+          <t>SAMEA5383907</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ERR3220211</t>
+          <t>ERR3224587</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5986,24 +5986,24 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>59061793</t>
+          <t>103674030</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>10675_0034</t>
+          <t>10676_0023</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SAMEA5383872</t>
+          <t>SAMEA5383908</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ERR3220213</t>
+          <t>ERR3224588</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6013,24 +6013,24 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>60201192</t>
+          <t>128046010</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>10675_0036</t>
+          <t>10676_0024</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SAMEA5383873</t>
+          <t>SAMEA5383909</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ERR3220214</t>
+          <t>ERR3224589</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6040,24 +6040,24 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>66520701</t>
+          <t>113387279</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>10675_0037</t>
+          <t>10676_0025</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SAMEA5383874</t>
+          <t>SAMEA5383911</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ERR3220215</t>
+          <t>ERR3224591</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6067,24 +6067,24 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>67285831</t>
+          <t>108692792</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>10675_0038</t>
+          <t>10676_0027</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SAMEA5383879</t>
+          <t>SAMEA5383913</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ERR3220219</t>
+          <t>ERR3224593</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6094,24 +6094,24 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>61643086</t>
+          <t>101625927</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>10675_0043</t>
+          <t>10676_0029</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SAMEA5383881</t>
+          <t>SAMEA5383915</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ERR3220221</t>
+          <t>ERR3224595</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6121,24 +6121,24 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>61494289</t>
+          <t>101040697</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>10675_0045</t>
+          <t>10676_0031</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SAMEA5383886</t>
+          <t>SAMEA5383925</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ERR3224568</t>
+          <t>ERR3224604</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6148,24 +6148,24 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>110700266</t>
+          <t>97208864</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>10676_0002</t>
+          <t>10676_0040</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SAMEA5383889</t>
+          <t>SAMEA5383926</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ERR3224571</t>
+          <t>ERR3224605</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -6175,24 +6175,24 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>89166754</t>
+          <t>111629609</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>10676_0005</t>
+          <t>10676_0041</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SAMEA5383893</t>
+          <t>SAMEA5383927</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ERR3224573</t>
+          <t>ERR3224606</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -6202,24 +6202,24 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>109713843</t>
+          <t>100816571</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>10676_0009</t>
+          <t>10676_0042</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SAMEA5383896</t>
+          <t>SAMEA5383928</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ERR3224576</t>
+          <t>ERR3224607</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -6229,24 +6229,24 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>132287068</t>
+          <t>107829006</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>10676_0012</t>
+          <t>10676_0043</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SAMEA5383897</t>
+          <t>SAMEA5383932</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ERR3224577</t>
+          <t>ERR3224610</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -6256,24 +6256,24 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>104772751</t>
+          <t>123968719</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>10676_0013</t>
+          <t>10676_0047</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SAMEA5383898</t>
+          <t>SAMEA5383933</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ERR3224578</t>
+          <t>ERR3224611</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -6283,24 +6283,24 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>105859889</t>
+          <t>129942570</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>10676_0014</t>
+          <t>10676_0048</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SAMEA5383899</t>
+          <t>SAMEA5383892</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ERR3224579</t>
+          <t>ERR3224613</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6310,24 +6310,24 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>119367037</t>
+          <t>97430908</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>10676_0015</t>
+          <t>10676_0050</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SAMEA5383901</t>
+          <t>SAMEA5383944</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ERR3224581</t>
+          <t>ERR3275101</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -6337,24 +6337,24 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>116173964</t>
+          <t>133345516</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>10676_0017</t>
+          <t>10677_0011</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SAMEA5383902</t>
+          <t>SAMEA5383956</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ERR3224582</t>
+          <t>ERR3275111</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6364,24 +6364,24 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>111675068</t>
+          <t>140531343</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>10676_0018</t>
+          <t>10677_0023</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SAMEA5383910</t>
+          <t>SAMEA5383963</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ERR3224590</t>
+          <t>ERR3275116</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6391,24 +6391,24 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>109486347</t>
+          <t>120648014</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>10676_0026</t>
+          <t>10677_0030</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SAMEA5383914</t>
+          <t>SAMEA5383968</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ERR3224594</t>
+          <t>ERR3275119</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6418,24 +6418,24 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>122728732</t>
+          <t>128456056</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>10676_0030</t>
+          <t>10677_0035</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SAMEA5383917</t>
+          <t>SAMEA5383973</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ERR3224597</t>
+          <t>ERR3275121</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6445,24 +6445,24 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>134601253</t>
+          <t>126311197</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>10676_0033</t>
+          <t>10677_0040</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SAMEA5383919</t>
+          <t>SAMEA5383974</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ERR3224598</t>
+          <t>ERR3275122</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6472,24 +6472,24 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>128396879</t>
+          <t>132483373</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>10676_0034</t>
+          <t>10677_0041</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SAMEA5383920</t>
+          <t>SAMEA5383976</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ERR3224599</t>
+          <t>ERR3275124</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6499,24 +6499,24 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>125052574</t>
+          <t>119053135</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>10676_0035</t>
+          <t>10677_0043</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SAMEA5383921</t>
+          <t>SAMEA5383977</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ERR3224600</t>
+          <t>ERR3275125</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6526,24 +6526,24 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>119385819</t>
+          <t>128523824</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>10676_0036</t>
+          <t>10677_0044</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SAMEA5383924</t>
+          <t>SAMEA5383978</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ERR3224603</t>
+          <t>ERR3275126</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -6553,24 +6553,24 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>102298834</t>
+          <t>136527050</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>10676_0039</t>
+          <t>10677_0045</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SAMEA5383930</t>
+          <t>SAMEA5383965</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ERR3224608</t>
+          <t>ERR3275135</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -6580,24 +6580,24 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>114265510</t>
+          <t>142578424</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>10676_0045</t>
+          <t>10677_0054</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SAMEA5383935</t>
+          <t>SAMEA5383993</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ERR3275092</t>
+          <t>ERR3201386</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -6607,24 +6607,24 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>124570715</t>
+          <t>68131763</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>10677_0002</t>
+          <t>10678_0012</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SAMEA5383937</t>
+          <t>SAMEA5384007</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ERR3275094</t>
+          <t>ERR3201396</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6634,24 +6634,24 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>136364943</t>
+          <t>47032789</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>10677_0004</t>
+          <t>10678_0026</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SAMEA5383938</t>
+          <t>SAMEA5384009</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ERR3275095</t>
+          <t>ERR3201398</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -6661,24 +6661,24 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>133040571</t>
+          <t>70440843</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>10677_0005</t>
+          <t>10678_0028</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SAMEA5383939</t>
+          <t>SAMEA5384014</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ERR3275096</t>
+          <t>ERR3201403</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -6688,24 +6688,24 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>130973399</t>
+          <t>67883866</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>10677_0006</t>
+          <t>10678_0033</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SAMEA5383940</t>
+          <t>SAMEA5384020</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ERR3275097</t>
+          <t>ERR3201409</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -6715,24 +6715,24 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>116730496</t>
+          <t>70692388</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>10677_0007</t>
+          <t>10678_0039</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SAMEA5383949</t>
+          <t>SAMEA5384024</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ERR3275105</t>
+          <t>ERR3201413</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -6742,24 +6742,24 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>142248686</t>
+          <t>53941237</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>10677_0016</t>
+          <t>10678_0043</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SAMEA5383955</t>
+          <t>SAMEA5384028</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ERR3275110</t>
+          <t>ERR3201417</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -6769,24 +6769,24 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>144763036</t>
+          <t>102756726</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>10677_0022</t>
+          <t>10678_0047</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SAMEA5383960</t>
+          <t>SAMEA5383998</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ERR3275113</t>
+          <t>ERR3201420</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -6796,24 +6796,24 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>132000998</t>
+          <t>58726333</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>10677_0027</t>
+          <t>10678_0050</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SAMEA5383967</t>
+          <t>SAMEA5383950</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ERR3275118</t>
+          <t>ERR3275106</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -6823,24 +6823,24 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>130920072</t>
+          <t>159451022</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>10677_0034</t>
+          <t>10677_0017</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SAMEA5383971</t>
+          <t>SAMEA5383980</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ERR3275120</t>
+          <t>ERR3275128</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -6850,24 +6850,24 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>125816186</t>
+          <t>134074212</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>10677_0038</t>
+          <t>10677_0047</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SAMEA5383975</t>
+          <t>SAMEA5383981</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ERR3275123</t>
+          <t>ERR3275129</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -6877,24 +6877,24 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>135618561</t>
+          <t>125337628</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>10677_0042</t>
+          <t>10677_0048</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SAMEA5383959</t>
+          <t>SAMEA5383946</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ERR3275133</t>
+          <t>ERR3275130</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -6904,24 +6904,24 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>128150439</t>
+          <t>128811180</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>10677_0052</t>
+          <t>10677_0049</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SAMEA5383964</t>
+          <t>SAMEA5383972</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ERR3275134</t>
+          <t>ERR3275138</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -6931,12 +6931,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>148552312</t>
+          <t>136213219</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>10677_0053</t>
+          <t>10677_0057</t>
         </is>
       </c>
     </row>
